--- a/INTLINE/data/134/DEUSTATIS/National accounts - Population and employment quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Population and employment quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="68">
   <si>
     <t>National accounts - Population, employment: Germany,
 quarters, original and adjusted data</t>
@@ -123,6 +123,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>Quarter 1</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t xml:space="preserve"> - Economically inactive population</t>
@@ -210,7 +216,7 @@
     <t>Including family workers.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:14:33</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:51:22</t>
   </si>
 </sst>
 </file>
@@ -775,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="528">
+  <cellXfs count="544">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -1332,6 +1338,22 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -1836,6 +1858,22 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2352,6 +2390,22 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -2362,6 +2416,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -2895,586 +2965,604 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="276">
+      <c r="A4" t="s" s="284">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="277">
+      <c r="B4" t="s" s="285">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="278">
+      <c r="C4" t="s" s="286">
         <v>5</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="280"/>
-      <c r="F4" s="281"/>
-      <c r="G4" t="s" s="282">
+      <c r="D4" s="287"/>
+      <c r="E4" s="288"/>
+      <c r="F4" s="289"/>
+      <c r="G4" t="s" s="290">
         <v>6</v>
       </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="285"/>
-      <c r="K4" t="s" s="286">
+      <c r="H4" s="291"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="293"/>
+      <c r="K4" t="s" s="294">
         <v>7</v>
       </c>
-      <c r="L4" s="287"/>
-      <c r="M4" s="288"/>
-      <c r="N4" s="289"/>
-      <c r="O4" t="s" s="290">
+      <c r="L4" s="295"/>
+      <c r="M4" s="296"/>
+      <c r="N4" s="297"/>
+      <c r="O4" t="s" s="298">
         <v>8</v>
       </c>
-      <c r="P4" s="291"/>
-      <c r="Q4" s="292"/>
-      <c r="R4" s="293"/>
-      <c r="S4" t="s" s="294">
+      <c r="P4" s="299"/>
+      <c r="Q4" s="300"/>
+      <c r="R4" s="301"/>
+      <c r="S4" t="s" s="302">
         <v>9</v>
       </c>
-      <c r="T4" s="295"/>
-      <c r="U4" s="296"/>
-      <c r="V4" s="297"/>
-      <c r="W4" t="s" s="298">
+      <c r="T4" s="303"/>
+      <c r="U4" s="304"/>
+      <c r="V4" s="305"/>
+      <c r="W4" t="s" s="306">
         <v>10</v>
       </c>
-      <c r="X4" s="299"/>
-      <c r="Y4" s="300"/>
-      <c r="Z4" s="301"/>
-      <c r="AA4" t="s" s="302">
+      <c r="X4" s="307"/>
+      <c r="Y4" s="308"/>
+      <c r="Z4" s="309"/>
+      <c r="AA4" t="s" s="310">
         <v>11</v>
       </c>
-      <c r="AB4" s="303"/>
-      <c r="AC4" s="304"/>
-      <c r="AD4" s="305"/>
-      <c r="AE4" t="s" s="306">
+      <c r="AB4" s="311"/>
+      <c r="AC4" s="312"/>
+      <c r="AD4" s="313"/>
+      <c r="AE4" t="s" s="314">
         <v>12</v>
       </c>
-      <c r="AF4" s="307"/>
-      <c r="AG4" s="308"/>
-      <c r="AH4" s="309"/>
-      <c r="AI4" t="s" s="310">
+      <c r="AF4" s="315"/>
+      <c r="AG4" s="316"/>
+      <c r="AH4" s="317"/>
+      <c r="AI4" t="s" s="318">
         <v>13</v>
       </c>
-      <c r="AJ4" s="311"/>
-      <c r="AK4" s="312"/>
-      <c r="AL4" s="313"/>
-      <c r="AM4" t="s" s="314">
+      <c r="AJ4" s="319"/>
+      <c r="AK4" s="320"/>
+      <c r="AL4" s="321"/>
+      <c r="AM4" t="s" s="322">
         <v>14</v>
       </c>
-      <c r="AN4" s="315"/>
-      <c r="AO4" s="316"/>
-      <c r="AP4" s="317"/>
-      <c r="AQ4" t="s" s="318">
+      <c r="AN4" s="323"/>
+      <c r="AO4" s="324"/>
+      <c r="AP4" s="325"/>
+      <c r="AQ4" t="s" s="326">
         <v>15</v>
       </c>
-      <c r="AR4" s="319"/>
-      <c r="AS4" s="320"/>
-      <c r="AT4" s="321"/>
-      <c r="AU4" t="s" s="322">
+      <c r="AR4" s="327"/>
+      <c r="AS4" s="328"/>
+      <c r="AT4" s="329"/>
+      <c r="AU4" t="s" s="330">
         <v>16</v>
       </c>
-      <c r="AV4" s="323"/>
-      <c r="AW4" s="324"/>
-      <c r="AX4" s="325"/>
-      <c r="AY4" t="s" s="326">
+      <c r="AV4" s="331"/>
+      <c r="AW4" s="332"/>
+      <c r="AX4" s="333"/>
+      <c r="AY4" t="s" s="334">
         <v>17</v>
       </c>
-      <c r="AZ4" s="327"/>
-      <c r="BA4" s="328"/>
-      <c r="BB4" s="329"/>
-      <c r="BC4" t="s" s="330">
+      <c r="AZ4" s="335"/>
+      <c r="BA4" s="336"/>
+      <c r="BB4" s="337"/>
+      <c r="BC4" t="s" s="338">
         <v>18</v>
       </c>
-      <c r="BD4" s="331"/>
-      <c r="BE4" s="332"/>
-      <c r="BF4" s="333"/>
-      <c r="BG4" t="s" s="334">
+      <c r="BD4" s="339"/>
+      <c r="BE4" s="340"/>
+      <c r="BF4" s="341"/>
+      <c r="BG4" t="s" s="342">
         <v>19</v>
       </c>
-      <c r="BH4" s="335"/>
-      <c r="BI4" s="336"/>
-      <c r="BJ4" s="337"/>
-      <c r="BK4" t="s" s="338">
+      <c r="BH4" s="343"/>
+      <c r="BI4" s="344"/>
+      <c r="BJ4" s="345"/>
+      <c r="BK4" t="s" s="346">
         <v>20</v>
       </c>
-      <c r="BL4" s="339"/>
-      <c r="BM4" s="340"/>
-      <c r="BN4" s="341"/>
-      <c r="BO4" t="s" s="342">
+      <c r="BL4" s="347"/>
+      <c r="BM4" s="348"/>
+      <c r="BN4" s="349"/>
+      <c r="BO4" t="s" s="350">
         <v>21</v>
       </c>
-      <c r="BP4" s="343"/>
-      <c r="BQ4" s="344"/>
-      <c r="BR4" s="345"/>
-      <c r="BS4" t="s" s="346">
+      <c r="BP4" s="351"/>
+      <c r="BQ4" s="352"/>
+      <c r="BR4" s="353"/>
+      <c r="BS4" t="s" s="354">
         <v>22</v>
       </c>
-      <c r="BT4" s="347"/>
-      <c r="BU4" s="348"/>
-      <c r="BV4" s="349"/>
-      <c r="BW4" t="s" s="350">
+      <c r="BT4" s="355"/>
+      <c r="BU4" s="356"/>
+      <c r="BV4" s="357"/>
+      <c r="BW4" t="s" s="358">
         <v>23</v>
       </c>
-      <c r="BX4" s="351"/>
-      <c r="BY4" s="352"/>
-      <c r="BZ4" s="353"/>
-      <c r="CA4" t="s" s="354">
+      <c r="BX4" s="359"/>
+      <c r="BY4" s="360"/>
+      <c r="BZ4" s="361"/>
+      <c r="CA4" t="s" s="362">
         <v>24</v>
       </c>
-      <c r="CB4" s="355"/>
-      <c r="CC4" s="356"/>
-      <c r="CD4" s="357"/>
-      <c r="CE4" t="s" s="358">
+      <c r="CB4" s="363"/>
+      <c r="CC4" s="364"/>
+      <c r="CD4" s="365"/>
+      <c r="CE4" t="s" s="366">
         <v>25</v>
       </c>
-      <c r="CF4" s="359"/>
-      <c r="CG4" s="360"/>
-      <c r="CH4" s="361"/>
-      <c r="CI4" t="s" s="362">
+      <c r="CF4" s="367"/>
+      <c r="CG4" s="368"/>
+      <c r="CH4" s="369"/>
+      <c r="CI4" t="s" s="370">
         <v>26</v>
       </c>
-      <c r="CJ4" s="363"/>
-      <c r="CK4" s="364"/>
-      <c r="CL4" s="365"/>
-      <c r="CM4" t="s" s="366">
+      <c r="CJ4" s="371"/>
+      <c r="CK4" s="372"/>
+      <c r="CL4" s="373"/>
+      <c r="CM4" t="s" s="374">
         <v>27</v>
       </c>
-      <c r="CN4" s="367"/>
-      <c r="CO4" s="368"/>
-      <c r="CP4" s="369"/>
-      <c r="CQ4" t="s" s="370">
+      <c r="CN4" s="375"/>
+      <c r="CO4" s="376"/>
+      <c r="CP4" s="377"/>
+      <c r="CQ4" t="s" s="378">
         <v>28</v>
       </c>
-      <c r="CR4" s="371"/>
-      <c r="CS4" s="372"/>
-      <c r="CT4" s="373"/>
-      <c r="CU4" t="s" s="374">
+      <c r="CR4" s="379"/>
+      <c r="CS4" s="380"/>
+      <c r="CT4" s="381"/>
+      <c r="CU4" t="s" s="382">
         <v>29</v>
       </c>
-      <c r="CV4" s="375"/>
-      <c r="CW4" s="376"/>
-      <c r="CX4" s="377"/>
-      <c r="CY4" t="s" s="378">
+      <c r="CV4" s="383"/>
+      <c r="CW4" s="384"/>
+      <c r="CX4" s="385"/>
+      <c r="CY4" t="s" s="386">
         <v>30</v>
       </c>
-      <c r="CZ4" s="379"/>
-      <c r="DA4" s="380"/>
-      <c r="DB4" s="381"/>
-      <c r="DC4" t="s" s="382">
+      <c r="CZ4" s="387"/>
+      <c r="DA4" s="388"/>
+      <c r="DB4" s="389"/>
+      <c r="DC4" t="s" s="390">
         <v>31</v>
       </c>
-      <c r="DD4" s="383"/>
-      <c r="DE4" s="384"/>
-      <c r="DF4" s="385"/>
-      <c r="DG4" t="s" s="386">
+      <c r="DD4" s="391"/>
+      <c r="DE4" s="392"/>
+      <c r="DF4" s="393"/>
+      <c r="DG4" t="s" s="394">
         <v>32</v>
       </c>
-      <c r="DH4" s="387"/>
-      <c r="DI4" s="388"/>
-      <c r="DJ4" s="389"/>
-      <c r="DK4" t="s" s="390">
+      <c r="DH4" s="395"/>
+      <c r="DI4" s="396"/>
+      <c r="DJ4" s="397"/>
+      <c r="DK4" t="s" s="398">
         <v>33</v>
       </c>
-      <c r="DL4" s="391"/>
-      <c r="DM4" s="392"/>
-      <c r="DN4" s="393"/>
-      <c r="DO4" t="s" s="394">
+      <c r="DL4" s="399"/>
+      <c r="DM4" s="400"/>
+      <c r="DN4" s="401"/>
+      <c r="DO4" t="s" s="402">
         <v>34</v>
       </c>
-      <c r="DP4" s="395"/>
-      <c r="DQ4" s="396"/>
-      <c r="DR4" s="397"/>
-      <c r="DS4" t="s" s="398">
+      <c r="DP4" s="403"/>
+      <c r="DQ4" s="404"/>
+      <c r="DR4" s="405"/>
+      <c r="DS4" t="s" s="406">
         <v>35</v>
       </c>
-      <c r="DT4" s="399"/>
-      <c r="DU4" s="400"/>
-      <c r="DV4" s="401"/>
+      <c r="DT4" s="407"/>
+      <c r="DU4" s="408"/>
+      <c r="DV4" s="409"/>
+      <c r="DW4" t="s" s="410">
+        <v>36</v>
+      </c>
+      <c r="DX4" s="411"/>
+      <c r="DY4" s="412"/>
+      <c r="DZ4" s="413"/>
     </row>
     <row r="5">
-      <c r="A5" s="402"/>
-      <c r="B5" s="403"/>
-      <c r="C5" t="s" s="404">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s" s="405">
+      <c r="A5" s="414"/>
+      <c r="B5" s="415"/>
+      <c r="C5" t="s" s="416">
         <v>37</v>
       </c>
-      <c r="E5" t="s" s="406">
+      <c r="D5" t="s" s="417">
         <v>38</v>
       </c>
-      <c r="F5" t="s" s="407">
+      <c r="E5" t="s" s="418">
         <v>39</v>
       </c>
-      <c r="G5" t="s" s="408">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s" s="409">
+      <c r="F5" t="s" s="419">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s" s="420">
         <v>37</v>
       </c>
-      <c r="I5" t="s" s="410">
+      <c r="H5" t="s" s="421">
         <v>38</v>
       </c>
-      <c r="J5" t="s" s="411">
+      <c r="I5" t="s" s="422">
         <v>39</v>
       </c>
-      <c r="K5" t="s" s="412">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s" s="413">
+      <c r="J5" t="s" s="423">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s" s="424">
         <v>37</v>
       </c>
-      <c r="M5" t="s" s="414">
+      <c r="L5" t="s" s="425">
         <v>38</v>
       </c>
-      <c r="N5" t="s" s="415">
+      <c r="M5" t="s" s="426">
         <v>39</v>
       </c>
-      <c r="O5" t="s" s="416">
-        <v>36</v>
-      </c>
-      <c r="P5" t="s" s="417">
+      <c r="N5" t="s" s="427">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s" s="428">
         <v>37</v>
       </c>
-      <c r="Q5" t="s" s="418">
+      <c r="P5" t="s" s="429">
         <v>38</v>
       </c>
-      <c r="R5" t="s" s="419">
+      <c r="Q5" t="s" s="430">
         <v>39</v>
       </c>
-      <c r="S5" t="s" s="420">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s" s="421">
+      <c r="R5" t="s" s="431">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s" s="432">
         <v>37</v>
       </c>
-      <c r="U5" t="s" s="422">
+      <c r="T5" t="s" s="433">
         <v>38</v>
       </c>
-      <c r="V5" t="s" s="423">
+      <c r="U5" t="s" s="434">
         <v>39</v>
       </c>
-      <c r="W5" t="s" s="424">
-        <v>36</v>
-      </c>
-      <c r="X5" t="s" s="425">
+      <c r="V5" t="s" s="435">
+        <v>40</v>
+      </c>
+      <c r="W5" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="Y5" t="s" s="426">
+      <c r="X5" t="s" s="437">
         <v>38</v>
       </c>
-      <c r="Z5" t="s" s="427">
+      <c r="Y5" t="s" s="438">
         <v>39</v>
       </c>
-      <c r="AA5" t="s" s="428">
-        <v>36</v>
-      </c>
-      <c r="AB5" t="s" s="429">
+      <c r="Z5" t="s" s="439">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s" s="440">
         <v>37</v>
       </c>
-      <c r="AC5" t="s" s="430">
+      <c r="AB5" t="s" s="441">
         <v>38</v>
       </c>
-      <c r="AD5" t="s" s="431">
+      <c r="AC5" t="s" s="442">
         <v>39</v>
       </c>
-      <c r="AE5" t="s" s="432">
-        <v>36</v>
-      </c>
-      <c r="AF5" t="s" s="433">
+      <c r="AD5" t="s" s="443">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="s" s="444">
         <v>37</v>
       </c>
-      <c r="AG5" t="s" s="434">
+      <c r="AF5" t="s" s="445">
         <v>38</v>
       </c>
-      <c r="AH5" t="s" s="435">
+      <c r="AG5" t="s" s="446">
         <v>39</v>
       </c>
-      <c r="AI5" t="s" s="436">
-        <v>36</v>
-      </c>
-      <c r="AJ5" t="s" s="437">
+      <c r="AH5" t="s" s="447">
+        <v>40</v>
+      </c>
+      <c r="AI5" t="s" s="448">
         <v>37</v>
       </c>
-      <c r="AK5" t="s" s="438">
+      <c r="AJ5" t="s" s="449">
         <v>38</v>
       </c>
-      <c r="AL5" t="s" s="439">
+      <c r="AK5" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="AM5" t="s" s="440">
-        <v>36</v>
-      </c>
-      <c r="AN5" t="s" s="441">
+      <c r="AL5" t="s" s="451">
+        <v>40</v>
+      </c>
+      <c r="AM5" t="s" s="452">
         <v>37</v>
       </c>
-      <c r="AO5" t="s" s="442">
+      <c r="AN5" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="AP5" t="s" s="443">
+      <c r="AO5" t="s" s="454">
         <v>39</v>
       </c>
-      <c r="AQ5" t="s" s="444">
-        <v>36</v>
-      </c>
-      <c r="AR5" t="s" s="445">
+      <c r="AP5" t="s" s="455">
+        <v>40</v>
+      </c>
+      <c r="AQ5" t="s" s="456">
         <v>37</v>
       </c>
-      <c r="AS5" t="s" s="446">
+      <c r="AR5" t="s" s="457">
         <v>38</v>
       </c>
-      <c r="AT5" t="s" s="447">
+      <c r="AS5" t="s" s="458">
         <v>39</v>
       </c>
-      <c r="AU5" t="s" s="448">
-        <v>36</v>
-      </c>
-      <c r="AV5" t="s" s="449">
+      <c r="AT5" t="s" s="459">
+        <v>40</v>
+      </c>
+      <c r="AU5" t="s" s="460">
         <v>37</v>
       </c>
-      <c r="AW5" t="s" s="450">
+      <c r="AV5" t="s" s="461">
         <v>38</v>
       </c>
-      <c r="AX5" t="s" s="451">
+      <c r="AW5" t="s" s="462">
         <v>39</v>
       </c>
-      <c r="AY5" t="s" s="452">
-        <v>36</v>
-      </c>
-      <c r="AZ5" t="s" s="453">
+      <c r="AX5" t="s" s="463">
+        <v>40</v>
+      </c>
+      <c r="AY5" t="s" s="464">
         <v>37</v>
       </c>
-      <c r="BA5" t="s" s="454">
+      <c r="AZ5" t="s" s="465">
         <v>38</v>
       </c>
-      <c r="BB5" t="s" s="455">
+      <c r="BA5" t="s" s="466">
         <v>39</v>
       </c>
-      <c r="BC5" t="s" s="456">
-        <v>36</v>
-      </c>
-      <c r="BD5" t="s" s="457">
+      <c r="BB5" t="s" s="467">
+        <v>40</v>
+      </c>
+      <c r="BC5" t="s" s="468">
         <v>37</v>
       </c>
-      <c r="BE5" t="s" s="458">
+      <c r="BD5" t="s" s="469">
         <v>38</v>
       </c>
-      <c r="BF5" t="s" s="459">
+      <c r="BE5" t="s" s="470">
         <v>39</v>
       </c>
-      <c r="BG5" t="s" s="460">
-        <v>36</v>
-      </c>
-      <c r="BH5" t="s" s="461">
+      <c r="BF5" t="s" s="471">
+        <v>40</v>
+      </c>
+      <c r="BG5" t="s" s="472">
         <v>37</v>
       </c>
-      <c r="BI5" t="s" s="462">
+      <c r="BH5" t="s" s="473">
         <v>38</v>
       </c>
-      <c r="BJ5" t="s" s="463">
+      <c r="BI5" t="s" s="474">
         <v>39</v>
       </c>
-      <c r="BK5" t="s" s="464">
-        <v>36</v>
-      </c>
-      <c r="BL5" t="s" s="465">
+      <c r="BJ5" t="s" s="475">
+        <v>40</v>
+      </c>
+      <c r="BK5" t="s" s="476">
         <v>37</v>
       </c>
-      <c r="BM5" t="s" s="466">
+      <c r="BL5" t="s" s="477">
         <v>38</v>
       </c>
-      <c r="BN5" t="s" s="467">
+      <c r="BM5" t="s" s="478">
         <v>39</v>
       </c>
-      <c r="BO5" t="s" s="468">
-        <v>36</v>
-      </c>
-      <c r="BP5" t="s" s="469">
+      <c r="BN5" t="s" s="479">
+        <v>40</v>
+      </c>
+      <c r="BO5" t="s" s="480">
         <v>37</v>
       </c>
-      <c r="BQ5" t="s" s="470">
+      <c r="BP5" t="s" s="481">
         <v>38</v>
       </c>
-      <c r="BR5" t="s" s="471">
+      <c r="BQ5" t="s" s="482">
         <v>39</v>
       </c>
-      <c r="BS5" t="s" s="472">
-        <v>36</v>
-      </c>
-      <c r="BT5" t="s" s="473">
+      <c r="BR5" t="s" s="483">
+        <v>40</v>
+      </c>
+      <c r="BS5" t="s" s="484">
         <v>37</v>
       </c>
-      <c r="BU5" t="s" s="474">
+      <c r="BT5" t="s" s="485">
         <v>38</v>
       </c>
-      <c r="BV5" t="s" s="475">
+      <c r="BU5" t="s" s="486">
         <v>39</v>
       </c>
-      <c r="BW5" t="s" s="476">
-        <v>36</v>
-      </c>
-      <c r="BX5" t="s" s="477">
+      <c r="BV5" t="s" s="487">
+        <v>40</v>
+      </c>
+      <c r="BW5" t="s" s="488">
         <v>37</v>
       </c>
-      <c r="BY5" t="s" s="478">
+      <c r="BX5" t="s" s="489">
         <v>38</v>
       </c>
-      <c r="BZ5" t="s" s="479">
+      <c r="BY5" t="s" s="490">
         <v>39</v>
       </c>
-      <c r="CA5" t="s" s="480">
-        <v>36</v>
-      </c>
-      <c r="CB5" t="s" s="481">
+      <c r="BZ5" t="s" s="491">
+        <v>40</v>
+      </c>
+      <c r="CA5" t="s" s="492">
         <v>37</v>
       </c>
-      <c r="CC5" t="s" s="482">
+      <c r="CB5" t="s" s="493">
         <v>38</v>
       </c>
-      <c r="CD5" t="s" s="483">
+      <c r="CC5" t="s" s="494">
         <v>39</v>
       </c>
-      <c r="CE5" t="s" s="484">
-        <v>36</v>
-      </c>
-      <c r="CF5" t="s" s="485">
+      <c r="CD5" t="s" s="495">
+        <v>40</v>
+      </c>
+      <c r="CE5" t="s" s="496">
         <v>37</v>
       </c>
-      <c r="CG5" t="s" s="486">
+      <c r="CF5" t="s" s="497">
         <v>38</v>
       </c>
-      <c r="CH5" t="s" s="487">
+      <c r="CG5" t="s" s="498">
         <v>39</v>
       </c>
-      <c r="CI5" t="s" s="488">
-        <v>36</v>
-      </c>
-      <c r="CJ5" t="s" s="489">
+      <c r="CH5" t="s" s="499">
+        <v>40</v>
+      </c>
+      <c r="CI5" t="s" s="500">
         <v>37</v>
       </c>
-      <c r="CK5" t="s" s="490">
+      <c r="CJ5" t="s" s="501">
         <v>38</v>
       </c>
-      <c r="CL5" t="s" s="491">
+      <c r="CK5" t="s" s="502">
         <v>39</v>
       </c>
-      <c r="CM5" t="s" s="492">
-        <v>36</v>
-      </c>
-      <c r="CN5" t="s" s="493">
+      <c r="CL5" t="s" s="503">
+        <v>40</v>
+      </c>
+      <c r="CM5" t="s" s="504">
         <v>37</v>
       </c>
-      <c r="CO5" t="s" s="494">
+      <c r="CN5" t="s" s="505">
         <v>38</v>
       </c>
-      <c r="CP5" t="s" s="495">
+      <c r="CO5" t="s" s="506">
         <v>39</v>
       </c>
-      <c r="CQ5" t="s" s="496">
-        <v>36</v>
-      </c>
-      <c r="CR5" t="s" s="497">
+      <c r="CP5" t="s" s="507">
+        <v>40</v>
+      </c>
+      <c r="CQ5" t="s" s="508">
         <v>37</v>
       </c>
-      <c r="CS5" t="s" s="498">
+      <c r="CR5" t="s" s="509">
         <v>38</v>
       </c>
-      <c r="CT5" t="s" s="499">
+      <c r="CS5" t="s" s="510">
         <v>39</v>
       </c>
-      <c r="CU5" t="s" s="500">
-        <v>36</v>
-      </c>
-      <c r="CV5" t="s" s="501">
+      <c r="CT5" t="s" s="511">
+        <v>40</v>
+      </c>
+      <c r="CU5" t="s" s="512">
         <v>37</v>
       </c>
-      <c r="CW5" t="s" s="502">
+      <c r="CV5" t="s" s="513">
         <v>38</v>
       </c>
-      <c r="CX5" t="s" s="503">
+      <c r="CW5" t="s" s="514">
         <v>39</v>
       </c>
-      <c r="CY5" t="s" s="504">
-        <v>36</v>
-      </c>
-      <c r="CZ5" t="s" s="505">
+      <c r="CX5" t="s" s="515">
+        <v>40</v>
+      </c>
+      <c r="CY5" t="s" s="516">
         <v>37</v>
       </c>
-      <c r="DA5" t="s" s="506">
+      <c r="CZ5" t="s" s="517">
         <v>38</v>
       </c>
-      <c r="DB5" t="s" s="507">
+      <c r="DA5" t="s" s="518">
         <v>39</v>
       </c>
-      <c r="DC5" t="s" s="508">
-        <v>36</v>
-      </c>
-      <c r="DD5" t="s" s="509">
+      <c r="DB5" t="s" s="519">
+        <v>40</v>
+      </c>
+      <c r="DC5" t="s" s="520">
         <v>37</v>
       </c>
-      <c r="DE5" t="s" s="510">
+      <c r="DD5" t="s" s="521">
         <v>38</v>
       </c>
-      <c r="DF5" t="s" s="511">
+      <c r="DE5" t="s" s="522">
         <v>39</v>
       </c>
-      <c r="DG5" t="s" s="512">
-        <v>36</v>
-      </c>
-      <c r="DH5" t="s" s="513">
+      <c r="DF5" t="s" s="523">
+        <v>40</v>
+      </c>
+      <c r="DG5" t="s" s="524">
         <v>37</v>
       </c>
-      <c r="DI5" t="s" s="514">
+      <c r="DH5" t="s" s="525">
         <v>38</v>
       </c>
-      <c r="DJ5" t="s" s="515">
+      <c r="DI5" t="s" s="526">
         <v>39</v>
       </c>
-      <c r="DK5" t="s" s="516">
-        <v>36</v>
-      </c>
-      <c r="DL5" t="s" s="517">
+      <c r="DJ5" t="s" s="527">
+        <v>40</v>
+      </c>
+      <c r="DK5" t="s" s="528">
         <v>37</v>
       </c>
-      <c r="DM5" t="s" s="518">
+      <c r="DL5" t="s" s="529">
         <v>38</v>
       </c>
-      <c r="DN5" t="s" s="519">
+      <c r="DM5" t="s" s="530">
         <v>39</v>
       </c>
-      <c r="DO5" t="s" s="520">
-        <v>36</v>
-      </c>
-      <c r="DP5" t="s" s="521">
+      <c r="DN5" t="s" s="531">
+        <v>40</v>
+      </c>
+      <c r="DO5" t="s" s="532">
         <v>37</v>
       </c>
-      <c r="DQ5" t="s" s="522">
+      <c r="DP5" t="s" s="533">
         <v>38</v>
       </c>
-      <c r="DR5" t="s" s="523">
+      <c r="DQ5" t="s" s="534">
         <v>39</v>
       </c>
-      <c r="DS5" t="s" s="524">
-        <v>36</v>
-      </c>
-      <c r="DT5" t="s" s="525">
+      <c r="DR5" t="s" s="535">
+        <v>40</v>
+      </c>
+      <c r="DS5" t="s" s="536">
         <v>37</v>
       </c>
-      <c r="DU5" t="s" s="526">
+      <c r="DT5" t="s" s="537">
         <v>38</v>
       </c>
-      <c r="DV5" t="s" s="527">
+      <c r="DU5" t="s" s="538">
         <v>39</v>
+      </c>
+      <c r="DV5" t="s" s="539">
+        <v>40</v>
+      </c>
+      <c r="DW5" t="s" s="540">
+        <v>37</v>
+      </c>
+      <c r="DX5" t="s" s="541">
+        <v>38</v>
+      </c>
+      <c r="DY5" t="s" s="542">
+        <v>39</v>
+      </c>
+      <c r="DZ5" t="s" s="543">
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="33.75" customHeight="true">
       <c r="A6" t="s" s="15">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n" s="11">
         <v>79777.0</v>
@@ -3837,216 +3925,228 @@
         <v>83194.0</v>
       </c>
       <c r="DS7" t="n" s="11">
-        <v>83158.0</v>
+        <v>83156.0</v>
       </c>
       <c r="DT7" t="n" s="11">
-        <v>83153.0</v>
+        <v>83151.0</v>
       </c>
       <c r="DU7" t="n" s="11">
-        <v>83199.0</v>
+        <v>83197.0</v>
       </c>
       <c r="DV7" t="n" s="11">
-        <v>83273.0</v>
+        <v>83285.0</v>
+      </c>
+      <c r="DW7" t="n" s="11">
+        <v>83232.0</v>
+      </c>
+      <c r="DX7" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY7" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ7" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="14">
         <v>43</v>
       </c>
-      <c r="B8" t="s" s="14">
-        <v>42</v>
-      </c>
       <c r="C8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AP8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AQ8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AR8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AS8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AT8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AU8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AV8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AW8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AX8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AY8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AZ8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BA8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BB8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BC8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BD8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BE8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BF8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BG8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BH8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BI8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BJ8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BK8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BL8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BM8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BN8" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BO8" t="n" s="11">
         <v>37545.0</v>
@@ -4076,7 +4176,7 @@
         <v>36654.0</v>
       </c>
       <c r="BX8" t="n" s="11">
-        <v>37003.0</v>
+        <v>36587.0</v>
       </c>
       <c r="BY8" t="n" s="11">
         <v>36446.0</v>
@@ -4217,216 +4317,228 @@
         <v>36692.0</v>
       </c>
       <c r="DS8" t="n" s="11">
-        <v>37030.0</v>
+        <v>37016.0</v>
       </c>
       <c r="DT8" t="n" s="11">
-        <v>36954.0</v>
+        <v>36944.0</v>
       </c>
       <c r="DU8" t="n" s="11">
-        <v>36893.0</v>
+        <v>36830.0</v>
       </c>
       <c r="DV8" t="n" s="11">
-        <v>36668.0</v>
+        <v>36650.0</v>
+      </c>
+      <c r="DW8" t="n" s="11">
+        <v>36841.0</v>
+      </c>
+      <c r="DX8" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY8" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ8" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AP9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AQ9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AR9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AS9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AT9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AU9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AV9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AW9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AX9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AY9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AZ9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BA9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BB9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BC9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BD9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BE9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BF9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BG9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BH9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BI9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BJ9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BK9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BL9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BM9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BN9" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BO9" t="n" s="11">
         <v>43473.0</v>
@@ -4597,216 +4709,228 @@
         <v>46502.0</v>
       </c>
       <c r="DS9" t="n" s="11">
-        <v>46128.0</v>
+        <v>46140.0</v>
       </c>
       <c r="DT9" t="n" s="11">
-        <v>46199.0</v>
+        <v>46207.0</v>
       </c>
       <c r="DU9" t="n" s="11">
-        <v>46306.0</v>
+        <v>46367.0</v>
       </c>
       <c r="DV9" t="n" s="11">
-        <v>46605.0</v>
+        <v>46635.0</v>
+      </c>
+      <c r="DW9" t="n" s="11">
+        <v>46391.0</v>
+      </c>
+      <c r="DX9" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY9" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ9" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AP10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AQ10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AR10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AS10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AT10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AU10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AV10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AW10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AX10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AY10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AZ10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BA10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BB10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BC10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BD10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BE10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BF10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BG10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BH10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BI10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BJ10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BK10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BL10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BM10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BN10" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BO10" t="n" s="11">
         <v>3770.0</v>
@@ -4977,24 +5101,36 @@
         <v>1623.0</v>
       </c>
       <c r="DS10" t="n" s="11">
-        <v>1738.0</v>
+        <v>1750.0</v>
       </c>
       <c r="DT10" t="n" s="11">
-        <v>1580.0</v>
+        <v>1588.0</v>
       </c>
       <c r="DU10" t="n" s="11">
-        <v>1390.0</v>
+        <v>1451.0</v>
       </c>
       <c r="DV10" t="n" s="11">
-        <v>1315.0</v>
+        <v>1355.0</v>
+      </c>
+      <c r="DW10" t="n" s="11">
+        <v>1325.0</v>
+      </c>
+      <c r="DX10" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY10" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ10" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n" s="11">
         <v>39058.0</v>
@@ -5366,15 +5502,27 @@
         <v>44916.0</v>
       </c>
       <c r="DV11" t="n" s="11">
-        <v>45290.0</v>
+        <v>45280.0</v>
+      </c>
+      <c r="DW11" t="n" s="11">
+        <v>45066.0</v>
+      </c>
+      <c r="DX11" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY11" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ11" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n" s="11">
         <v>3569.0</v>
@@ -5740,21 +5888,33 @@
         <v>3947.0</v>
       </c>
       <c r="DT12" t="n" s="11">
-        <v>3924.0</v>
+        <v>3925.0</v>
       </c>
       <c r="DU12" t="n" s="11">
-        <v>3932.0</v>
+        <v>3931.0</v>
       </c>
       <c r="DV12" t="n" s="11">
-        <v>3913.0</v>
+        <v>3912.0</v>
+      </c>
+      <c r="DW12" t="n" s="11">
+        <v>3915.0</v>
+      </c>
+      <c r="DX12" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY12" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ12" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n" s="11">
         <v>35489.0</v>
@@ -6120,21 +6280,33 @@
         <v>40443.0</v>
       </c>
       <c r="DT13" t="n" s="11">
-        <v>40695.0</v>
+        <v>40694.0</v>
       </c>
       <c r="DU13" t="n" s="11">
-        <v>40984.0</v>
+        <v>40985.0</v>
       </c>
       <c r="DV13" t="n" s="11">
-        <v>41377.0</v>
+        <v>41368.0</v>
+      </c>
+      <c r="DW13" t="n" s="11">
+        <v>41151.0</v>
+      </c>
+      <c r="DX13" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY13" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ13" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n" s="11">
         <v>-87.0</v>
@@ -6506,15 +6678,27 @@
         <v>172.0</v>
       </c>
       <c r="DV14" t="n" s="11">
-        <v>109.0</v>
+        <v>111.0</v>
+      </c>
+      <c r="DW14" t="n" s="11">
+        <v>72.0</v>
+      </c>
+      <c r="DX14" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY14" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ14" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n" s="11">
         <v>35402.0</v>
@@ -6880,21 +7064,33 @@
         <v>40504.0</v>
       </c>
       <c r="DT15" t="n" s="11">
-        <v>40818.0</v>
+        <v>40817.0</v>
       </c>
       <c r="DU15" t="n" s="11">
-        <v>41156.0</v>
+        <v>41157.0</v>
       </c>
       <c r="DV15" t="n" s="11">
-        <v>41486.0</v>
+        <v>41479.0</v>
+      </c>
+      <c r="DW15" t="n" s="11">
+        <v>41223.0</v>
+      </c>
+      <c r="DX15" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY15" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ15" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n" s="11">
         <v>3569.0</v>
@@ -7260,21 +7456,33 @@
         <v>3947.0</v>
       </c>
       <c r="DT16" t="n" s="11">
-        <v>3924.0</v>
+        <v>3925.0</v>
       </c>
       <c r="DU16" t="n" s="11">
-        <v>3932.0</v>
+        <v>3931.0</v>
       </c>
       <c r="DV16" t="n" s="11">
-        <v>3913.0</v>
+        <v>3912.0</v>
+      </c>
+      <c r="DW16" t="n" s="11">
+        <v>3915.0</v>
+      </c>
+      <c r="DX16" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY16" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ16" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="n" s="11">
         <v>38971.0</v>
@@ -7646,207 +7854,219 @@
         <v>45088.0</v>
       </c>
       <c r="DV17" t="n" s="11">
-        <v>45399.0</v>
+        <v>45391.0</v>
+      </c>
+      <c r="DW17" t="n" s="11">
+        <v>45138.0</v>
+      </c>
+      <c r="DX17" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY17" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ17" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AP18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AQ18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AR18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AS18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AT18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AU18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AV18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AW18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AX18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AY18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AZ18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BA18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BB18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BC18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BD18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BE18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BF18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BG18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BH18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BI18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BJ18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BK18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BL18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BM18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BN18" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BO18" t="n" s="11">
         <v>53.7</v>
@@ -8027,206 +8247,218 @@
       </c>
       <c r="DV18" t="n" s="11">
         <v>56.0</v>
+      </c>
+      <c r="DW18" t="n" s="11">
+        <v>55.7</v>
+      </c>
+      <c r="DX18" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY18" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ18" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AA19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AN19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AP19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AQ19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AR19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AS19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AT19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AU19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AV19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AW19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AX19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AY19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AZ19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BA19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BB19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BC19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BD19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BE19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BF19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BG19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BH19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BI19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BJ19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BK19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BL19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BM19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BN19" t="s" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BO19" t="n" s="11">
         <v>8.7</v>
@@ -8403,23 +8635,35 @@
         <v>3.4</v>
       </c>
       <c r="DU19" t="n" s="11">
-        <v>3.0</v>
+        <v>3.1</v>
       </c>
       <c r="DV19" t="n" s="11">
-        <v>2.8</v>
+        <v>2.9</v>
+      </c>
+      <c r="DW19" t="n" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="DX19" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY19" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ19" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="20" ht="33.75" customHeight="true">
       <c r="A20" t="s" s="15">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="n" s="11">
         <v>79815.0</v>
@@ -8782,24 +9026,36 @@
         <v>83159.0</v>
       </c>
       <c r="DS21" t="n" s="11">
-        <v>83163.0</v>
+        <v>83161.0</v>
       </c>
       <c r="DT21" t="n" s="11">
-        <v>83174.0</v>
+        <v>83172.0</v>
       </c>
       <c r="DU21" t="n" s="11">
-        <v>83208.0</v>
+        <v>83206.0</v>
       </c>
       <c r="DV21" t="n" s="11">
-        <v>83238.0</v>
+        <v>83250.0</v>
+      </c>
+      <c r="DW21" t="n" s="11">
+        <v>83237.0</v>
+      </c>
+      <c r="DX21" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY21" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ21" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s" s="14">
         <v>43</v>
-      </c>
-      <c r="B22" t="s" s="14">
-        <v>42</v>
       </c>
       <c r="C22" t="n" s="11">
         <v>38499.0</v>
@@ -8838,7 +9094,7 @@
         <v>40068.0</v>
       </c>
       <c r="O22" t="n" s="11">
-        <v>39966.0</v>
+        <v>39965.0</v>
       </c>
       <c r="P22" t="n" s="11">
         <v>39990.0</v>
@@ -8847,10 +9103,10 @@
         <v>39991.0</v>
       </c>
       <c r="R22" t="n" s="11">
-        <v>39991.0</v>
+        <v>39990.0</v>
       </c>
       <c r="S22" t="n" s="11">
-        <v>40134.0</v>
+        <v>40133.0</v>
       </c>
       <c r="T22" t="n" s="11">
         <v>40168.0</v>
@@ -8880,52 +9136,52 @@
         <v>39813.0</v>
       </c>
       <c r="AC22" t="n" s="11">
-        <v>39742.0</v>
+        <v>39743.0</v>
       </c>
       <c r="AD22" t="n" s="11">
-        <v>39695.0</v>
+        <v>39694.0</v>
       </c>
       <c r="AE22" t="n" s="11">
-        <v>39626.0</v>
+        <v>39625.0</v>
       </c>
       <c r="AF22" t="n" s="11">
         <v>39439.0</v>
       </c>
       <c r="AG22" t="n" s="11">
-        <v>39242.0</v>
+        <v>39243.0</v>
       </c>
       <c r="AH22" t="n" s="11">
-        <v>39150.0</v>
+        <v>39148.0</v>
       </c>
       <c r="AI22" t="n" s="11">
-        <v>39150.0</v>
+        <v>39149.0</v>
       </c>
       <c r="AJ22" t="n" s="11">
         <v>39209.0</v>
       </c>
       <c r="AK22" t="n" s="11">
-        <v>38968.0</v>
+        <v>38970.0</v>
       </c>
       <c r="AL22" t="n" s="11">
-        <v>38831.0</v>
+        <v>38830.0</v>
       </c>
       <c r="AM22" t="n" s="11">
-        <v>38558.0</v>
+        <v>38557.0</v>
       </c>
       <c r="AN22" t="n" s="11">
         <v>38471.0</v>
       </c>
       <c r="AO22" t="n" s="11">
-        <v>38470.0</v>
+        <v>38471.0</v>
       </c>
       <c r="AP22" t="n" s="11">
         <v>38495.0</v>
       </c>
       <c r="AQ22" t="n" s="11">
-        <v>38708.0</v>
+        <v>38707.0</v>
       </c>
       <c r="AR22" t="n" s="11">
-        <v>38738.0</v>
+        <v>38739.0</v>
       </c>
       <c r="AS22" t="n" s="11">
         <v>38775.0</v>
@@ -8934,37 +9190,37 @@
         <v>38718.0</v>
       </c>
       <c r="AU22" t="n" s="11">
-        <v>38657.0</v>
+        <v>38656.0</v>
       </c>
       <c r="AV22" t="n" s="11">
         <v>38687.0</v>
       </c>
       <c r="AW22" t="n" s="11">
-        <v>38673.0</v>
+        <v>38674.0</v>
       </c>
       <c r="AX22" t="n" s="11">
         <v>38649.0</v>
       </c>
       <c r="AY22" t="n" s="11">
-        <v>38615.0</v>
+        <v>38613.0</v>
       </c>
       <c r="AZ22" t="n" s="11">
         <v>38686.0</v>
       </c>
       <c r="BA22" t="n" s="11">
-        <v>38617.0</v>
+        <v>38618.0</v>
       </c>
       <c r="BB22" t="n" s="11">
         <v>38587.0</v>
       </c>
       <c r="BC22" t="n" s="11">
-        <v>38348.0</v>
+        <v>38347.0</v>
       </c>
       <c r="BD22" t="n" s="11">
         <v>38144.0</v>
       </c>
       <c r="BE22" t="n" s="11">
-        <v>38075.0</v>
+        <v>38077.0</v>
       </c>
       <c r="BF22" t="n" s="11">
         <v>37967.0</v>
@@ -8973,58 +9229,58 @@
         <v>37900.0</v>
       </c>
       <c r="BH22" t="n" s="11">
-        <v>37733.0</v>
+        <v>37732.0</v>
       </c>
       <c r="BI22" t="n" s="11">
-        <v>37623.0</v>
+        <v>37625.0</v>
       </c>
       <c r="BJ22" t="n" s="11">
-        <v>37580.0</v>
+        <v>37579.0</v>
       </c>
       <c r="BK22" t="n" s="11">
         <v>37806.0</v>
       </c>
       <c r="BL22" t="n" s="11">
-        <v>37653.0</v>
+        <v>37652.0</v>
       </c>
       <c r="BM22" t="n" s="11">
-        <v>37485.0</v>
+        <v>37486.0</v>
       </c>
       <c r="BN22" t="n" s="11">
         <v>37427.0</v>
       </c>
       <c r="BO22" t="n" s="11">
-        <v>37389.0</v>
+        <v>37390.0</v>
       </c>
       <c r="BP22" t="n" s="11">
         <v>37353.0</v>
       </c>
       <c r="BQ22" t="n" s="11">
-        <v>37269.0</v>
+        <v>37270.0</v>
       </c>
       <c r="BR22" t="n" s="11">
         <v>37182.0</v>
       </c>
       <c r="BS22" t="n" s="11">
-        <v>37018.0</v>
+        <v>37017.0</v>
       </c>
       <c r="BT22" t="n" s="11">
-        <v>37004.0</v>
+        <v>37003.0</v>
       </c>
       <c r="BU22" t="n" s="11">
-        <v>36983.0</v>
+        <v>36984.0</v>
       </c>
       <c r="BV22" t="n" s="11">
         <v>36814.0</v>
       </c>
       <c r="BW22" t="n" s="11">
-        <v>36583.0</v>
+        <v>36582.0</v>
       </c>
       <c r="BX22" t="n" s="11">
         <v>36502.0</v>
       </c>
       <c r="BY22" t="n" s="11">
-        <v>36480.0</v>
+        <v>36481.0</v>
       </c>
       <c r="BZ22" t="n" s="11">
         <v>36517.0</v>
@@ -9069,7 +9325,7 @@
         <v>36159.0</v>
       </c>
       <c r="CN22" t="n" s="11">
-        <v>36179.0</v>
+        <v>36169.0</v>
       </c>
       <c r="CO22" t="n" s="11">
         <v>36185.0</v>
@@ -9117,69 +9373,81 @@
         <v>36972.0</v>
       </c>
       <c r="DD22" t="n" s="11">
-        <v>36943.0</v>
+        <v>36944.0</v>
       </c>
       <c r="DE22" t="n" s="11">
         <v>36875.0</v>
       </c>
       <c r="DF22" t="n" s="11">
-        <v>36834.0</v>
+        <v>36832.0</v>
       </c>
       <c r="DG22" t="n" s="11">
-        <v>36770.0</v>
+        <v>36771.0</v>
       </c>
       <c r="DH22" t="n" s="11">
-        <v>36712.0</v>
+        <v>36714.0</v>
       </c>
       <c r="DI22" t="n" s="11">
-        <v>36698.0</v>
+        <v>36699.0</v>
       </c>
       <c r="DJ22" t="n" s="11">
-        <v>36685.0</v>
+        <v>36680.0</v>
       </c>
       <c r="DK22" t="n" s="11">
-        <v>36610.0</v>
+        <v>36609.0</v>
       </c>
       <c r="DL22" t="n" s="11">
-        <v>36596.0</v>
+        <v>36590.0</v>
       </c>
       <c r="DM22" t="n" s="11">
-        <v>36623.0</v>
+        <v>36625.0</v>
       </c>
       <c r="DN22" t="n" s="11">
-        <v>36542.0</v>
+        <v>36524.0</v>
       </c>
       <c r="DO22" t="n" s="11">
-        <v>36402.0</v>
+        <v>36394.0</v>
       </c>
       <c r="DP22" t="n" s="11">
-        <v>36791.0</v>
+        <v>36797.0</v>
       </c>
       <c r="DQ22" t="n" s="11">
-        <v>36747.0</v>
+        <v>36760.0</v>
       </c>
       <c r="DR22" t="n" s="11">
-        <v>36770.0</v>
+        <v>36757.0</v>
       </c>
       <c r="DS22" t="n" s="11">
-        <v>36923.0</v>
+        <v>36903.0</v>
       </c>
       <c r="DT22" t="n" s="11">
-        <v>36921.0</v>
+        <v>36886.0</v>
       </c>
       <c r="DU22" t="n" s="11">
-        <v>36863.0</v>
+        <v>36825.0</v>
       </c>
       <c r="DV22" t="n" s="11">
-        <v>36816.0</v>
+        <v>36813.0</v>
+      </c>
+      <c r="DW22" t="n" s="11">
+        <v>36670.0</v>
+      </c>
+      <c r="DX22" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY22" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ22" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="n" s="11">
         <v>41316.0</v>
@@ -9218,7 +9486,7 @@
         <v>40953.0</v>
       </c>
       <c r="O23" t="n" s="11">
-        <v>41146.0</v>
+        <v>41147.0</v>
       </c>
       <c r="P23" t="n" s="11">
         <v>41152.0</v>
@@ -9227,10 +9495,10 @@
         <v>41165.0</v>
       </c>
       <c r="R23" t="n" s="11">
-        <v>41188.0</v>
+        <v>41189.0</v>
       </c>
       <c r="S23" t="n" s="11">
-        <v>41100.0</v>
+        <v>41101.0</v>
       </c>
       <c r="T23" t="n" s="11">
         <v>41107.0</v>
@@ -9260,52 +9528,52 @@
         <v>41718.0</v>
       </c>
       <c r="AC23" t="n" s="11">
-        <v>41778.0</v>
+        <v>41777.0</v>
       </c>
       <c r="AD23" t="n" s="11">
-        <v>41779.0</v>
+        <v>41780.0</v>
       </c>
       <c r="AE23" t="n" s="11">
-        <v>41867.0</v>
+        <v>41868.0</v>
       </c>
       <c r="AF23" t="n" s="11">
         <v>42026.0</v>
       </c>
       <c r="AG23" t="n" s="11">
-        <v>42183.0</v>
+        <v>42182.0</v>
       </c>
       <c r="AH23" t="n" s="11">
-        <v>42252.0</v>
+        <v>42254.0</v>
       </c>
       <c r="AI23" t="n" s="11">
-        <v>42252.0</v>
+        <v>42253.0</v>
       </c>
       <c r="AJ23" t="n" s="11">
         <v>42204.0</v>
       </c>
       <c r="AK23" t="n" s="11">
-        <v>42467.0</v>
+        <v>42465.0</v>
       </c>
       <c r="AL23" t="n" s="11">
-        <v>42609.0</v>
+        <v>42610.0</v>
       </c>
       <c r="AM23" t="n" s="11">
-        <v>42894.0</v>
+        <v>42895.0</v>
       </c>
       <c r="AN23" t="n" s="11">
         <v>42983.0</v>
       </c>
       <c r="AO23" t="n" s="11">
-        <v>42989.0</v>
+        <v>42988.0</v>
       </c>
       <c r="AP23" t="n" s="11">
         <v>42967.0</v>
       </c>
       <c r="AQ23" t="n" s="11">
-        <v>42768.0</v>
+        <v>42769.0</v>
       </c>
       <c r="AR23" t="n" s="11">
-        <v>42768.0</v>
+        <v>42767.0</v>
       </c>
       <c r="AS23" t="n" s="11">
         <v>42756.0</v>
@@ -9314,37 +9582,37 @@
         <v>42839.0</v>
       </c>
       <c r="AU23" t="n" s="11">
-        <v>42912.0</v>
+        <v>42913.0</v>
       </c>
       <c r="AV23" t="n" s="11">
         <v>42892.0</v>
       </c>
       <c r="AW23" t="n" s="11">
-        <v>42909.0</v>
+        <v>42908.0</v>
       </c>
       <c r="AX23" t="n" s="11">
         <v>42935.0</v>
       </c>
       <c r="AY23" t="n" s="11">
-        <v>42964.0</v>
+        <v>42966.0</v>
       </c>
       <c r="AZ23" t="n" s="11">
         <v>42874.0</v>
       </c>
       <c r="BA23" t="n" s="11">
-        <v>42923.0</v>
+        <v>42922.0</v>
       </c>
       <c r="BB23" t="n" s="11">
         <v>42930.0</v>
       </c>
       <c r="BC23" t="n" s="11">
-        <v>43151.0</v>
+        <v>43152.0</v>
       </c>
       <c r="BD23" t="n" s="11">
         <v>43327.0</v>
       </c>
       <c r="BE23" t="n" s="11">
-        <v>43367.0</v>
+        <v>43365.0</v>
       </c>
       <c r="BF23" t="n" s="11">
         <v>43446.0</v>
@@ -9353,58 +9621,58 @@
         <v>43482.0</v>
       </c>
       <c r="BH23" t="n" s="11">
-        <v>43621.0</v>
+        <v>43622.0</v>
       </c>
       <c r="BI23" t="n" s="11">
-        <v>43703.0</v>
+        <v>43701.0</v>
       </c>
       <c r="BJ23" t="n" s="11">
-        <v>43706.0</v>
+        <v>43707.0</v>
       </c>
       <c r="BK23" t="n" s="11">
         <v>43435.0</v>
       </c>
       <c r="BL23" t="n" s="11">
-        <v>43550.0</v>
+        <v>43551.0</v>
       </c>
       <c r="BM23" t="n" s="11">
-        <v>43665.0</v>
+        <v>43664.0</v>
       </c>
       <c r="BN23" t="n" s="11">
         <v>43674.0</v>
       </c>
       <c r="BO23" t="n" s="11">
-        <v>43661.0</v>
+        <v>43660.0</v>
       </c>
       <c r="BP23" t="n" s="11">
         <v>43664.0</v>
       </c>
       <c r="BQ23" t="n" s="11">
-        <v>43703.0</v>
+        <v>43702.0</v>
       </c>
       <c r="BR23" t="n" s="11">
         <v>43750.0</v>
       </c>
       <c r="BS23" t="n" s="11">
-        <v>43834.0</v>
+        <v>43835.0</v>
       </c>
       <c r="BT23" t="n" s="11">
-        <v>43797.0</v>
+        <v>43798.0</v>
       </c>
       <c r="BU23" t="n" s="11">
-        <v>43761.0</v>
+        <v>43760.0</v>
       </c>
       <c r="BV23" t="n" s="11">
         <v>43845.0</v>
       </c>
       <c r="BW23" t="n" s="11">
-        <v>43994.0</v>
+        <v>43995.0</v>
       </c>
       <c r="BX23" t="n" s="11">
         <v>43999.0</v>
       </c>
       <c r="BY23" t="n" s="11">
-        <v>43971.0</v>
+        <v>43970.0</v>
       </c>
       <c r="BZ23" t="n" s="11">
         <v>43886.0</v>
@@ -9449,7 +9717,7 @@
         <v>44403.0</v>
       </c>
       <c r="CN23" t="n" s="11">
-        <v>44416.0</v>
+        <v>44426.0</v>
       </c>
       <c r="CO23" t="n" s="11">
         <v>44485.0</v>
@@ -9497,69 +9765,81 @@
         <v>45577.0</v>
       </c>
       <c r="DD23" t="n" s="11">
-        <v>45700.0</v>
+        <v>45699.0</v>
       </c>
       <c r="DE23" t="n" s="11">
         <v>45822.0</v>
       </c>
       <c r="DF23" t="n" s="11">
-        <v>45906.0</v>
+        <v>45908.0</v>
       </c>
       <c r="DG23" t="n" s="11">
-        <v>46048.0</v>
+        <v>46047.0</v>
       </c>
       <c r="DH23" t="n" s="11">
-        <v>46156.0</v>
+        <v>46154.0</v>
       </c>
       <c r="DI23" t="n" s="11">
-        <v>46241.0</v>
+        <v>46240.0</v>
       </c>
       <c r="DJ23" t="n" s="11">
-        <v>46313.0</v>
+        <v>46318.0</v>
       </c>
       <c r="DK23" t="n" s="11">
-        <v>46433.0</v>
+        <v>46434.0</v>
       </c>
       <c r="DL23" t="n" s="11">
+        <v>46488.0</v>
+      </c>
+      <c r="DM23" t="n" s="11">
         <v>46482.0</v>
       </c>
-      <c r="DM23" t="n" s="11">
-        <v>46484.0</v>
-      </c>
       <c r="DN23" t="n" s="11">
-        <v>46601.0</v>
+        <v>46619.0</v>
       </c>
       <c r="DO23" t="n" s="11">
-        <v>46774.0</v>
+        <v>46782.0</v>
       </c>
       <c r="DP23" t="n" s="11">
-        <v>46358.0</v>
+        <v>46352.0</v>
       </c>
       <c r="DQ23" t="n" s="11">
-        <v>46413.0</v>
+        <v>46400.0</v>
       </c>
       <c r="DR23" t="n" s="11">
-        <v>46389.0</v>
+        <v>46402.0</v>
       </c>
       <c r="DS23" t="n" s="11">
-        <v>46240.0</v>
+        <v>46258.0</v>
       </c>
       <c r="DT23" t="n" s="11">
-        <v>46253.0</v>
+        <v>46286.0</v>
       </c>
       <c r="DU23" t="n" s="11">
-        <v>46345.0</v>
+        <v>46381.0</v>
       </c>
       <c r="DV23" t="n" s="11">
-        <v>46422.0</v>
+        <v>46437.0</v>
+      </c>
+      <c r="DW23" t="n" s="11">
+        <v>46567.0</v>
+      </c>
+      <c r="DX23" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY23" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ23" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="n" s="11">
         <v>2060.0</v>
@@ -9829,7 +10109,7 @@
         <v>2220.0</v>
       </c>
       <c r="CN24" t="n" s="11">
-        <v>2190.0</v>
+        <v>2200.0</v>
       </c>
       <c r="CO24" t="n" s="11">
         <v>2160.0</v>
@@ -9901,45 +10181,57 @@
         <v>1400.0</v>
       </c>
       <c r="DL24" t="n" s="11">
-        <v>1350.0</v>
+        <v>1360.0</v>
       </c>
       <c r="DM24" t="n" s="11">
         <v>1340.0</v>
       </c>
       <c r="DN24" t="n" s="11">
-        <v>1410.0</v>
+        <v>1420.0</v>
       </c>
       <c r="DO24" t="n" s="11">
-        <v>1530.0</v>
+        <v>1540.0</v>
       </c>
       <c r="DP24" t="n" s="11">
         <v>1670.0</v>
       </c>
       <c r="DQ24" t="n" s="11">
-        <v>1770.0</v>
+        <v>1760.0</v>
       </c>
       <c r="DR24" t="n" s="11">
         <v>1750.0</v>
       </c>
       <c r="DS24" t="n" s="11">
-        <v>1660.0</v>
+        <v>1680.0</v>
       </c>
       <c r="DT24" t="n" s="11">
-        <v>1560.0</v>
+        <v>1600.0</v>
       </c>
       <c r="DU24" t="n" s="11">
-        <v>1450.0</v>
+        <v>1490.0</v>
       </c>
       <c r="DV24" t="n" s="11">
-        <v>1380.0</v>
+        <v>1390.0</v>
+      </c>
+      <c r="DW24" t="n" s="11">
+        <v>1310.0</v>
+      </c>
+      <c r="DX24" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY24" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ24" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" t="n" s="11">
         <v>39256.0</v>
@@ -9978,7 +10270,7 @@
         <v>37733.0</v>
       </c>
       <c r="O25" t="n" s="11">
-        <v>37826.0</v>
+        <v>37827.0</v>
       </c>
       <c r="P25" t="n" s="11">
         <v>37802.0</v>
@@ -9987,10 +10279,10 @@
         <v>37865.0</v>
       </c>
       <c r="R25" t="n" s="11">
-        <v>37938.0</v>
+        <v>37939.0</v>
       </c>
       <c r="S25" t="n" s="11">
-        <v>37930.0</v>
+        <v>37931.0</v>
       </c>
       <c r="T25" t="n" s="11">
         <v>37957.0</v>
@@ -10020,52 +10312,52 @@
         <v>37938.0</v>
       </c>
       <c r="AC25" t="n" s="11">
-        <v>37998.0</v>
+        <v>37997.0</v>
       </c>
       <c r="AD25" t="n" s="11">
-        <v>37999.0</v>
+        <v>38000.0</v>
       </c>
       <c r="AE25" t="n" s="11">
-        <v>38087.0</v>
+        <v>38088.0</v>
       </c>
       <c r="AF25" t="n" s="11">
         <v>38296.0</v>
       </c>
       <c r="AG25" t="n" s="11">
-        <v>38533.0</v>
+        <v>38532.0</v>
       </c>
       <c r="AH25" t="n" s="11">
-        <v>38692.0</v>
+        <v>38694.0</v>
       </c>
       <c r="AI25" t="n" s="11">
-        <v>38772.0</v>
+        <v>38773.0</v>
       </c>
       <c r="AJ25" t="n" s="11">
         <v>38804.0</v>
       </c>
       <c r="AK25" t="n" s="11">
-        <v>39137.0</v>
+        <v>39135.0</v>
       </c>
       <c r="AL25" t="n" s="11">
-        <v>39349.0</v>
+        <v>39350.0</v>
       </c>
       <c r="AM25" t="n" s="11">
-        <v>39714.0</v>
+        <v>39715.0</v>
       </c>
       <c r="AN25" t="n" s="11">
         <v>39853.0</v>
       </c>
       <c r="AO25" t="n" s="11">
-        <v>39899.0</v>
+        <v>39898.0</v>
       </c>
       <c r="AP25" t="n" s="11">
         <v>39917.0</v>
       </c>
       <c r="AQ25" t="n" s="11">
-        <v>39758.0</v>
+        <v>39759.0</v>
       </c>
       <c r="AR25" t="n" s="11">
-        <v>39748.0</v>
+        <v>39747.0</v>
       </c>
       <c r="AS25" t="n" s="11">
         <v>39676.0</v>
@@ -10074,37 +10366,37 @@
         <v>39689.0</v>
       </c>
       <c r="AU25" t="n" s="11">
-        <v>39702.0</v>
+        <v>39703.0</v>
       </c>
       <c r="AV25" t="n" s="11">
         <v>39602.0</v>
       </c>
       <c r="AW25" t="n" s="11">
-        <v>39479.0</v>
+        <v>39478.0</v>
       </c>
       <c r="AX25" t="n" s="11">
         <v>39355.0</v>
       </c>
       <c r="AY25" t="n" s="11">
-        <v>39224.0</v>
+        <v>39226.0</v>
       </c>
       <c r="AZ25" t="n" s="11">
         <v>39044.0</v>
       </c>
       <c r="BA25" t="n" s="11">
-        <v>39083.0</v>
+        <v>39082.0</v>
       </c>
       <c r="BB25" t="n" s="11">
         <v>39090.0</v>
       </c>
       <c r="BC25" t="n" s="11">
-        <v>39201.0</v>
+        <v>39202.0</v>
       </c>
       <c r="BD25" t="n" s="11">
         <v>39277.0</v>
       </c>
       <c r="BE25" t="n" s="11">
-        <v>39257.0</v>
+        <v>39255.0</v>
       </c>
       <c r="BF25" t="n" s="11">
         <v>39236.0</v>
@@ -10113,58 +10405,58 @@
         <v>39142.0</v>
       </c>
       <c r="BH25" t="n" s="11">
-        <v>39121.0</v>
+        <v>39122.0</v>
       </c>
       <c r="BI25" t="n" s="11">
-        <v>39213.0</v>
+        <v>39211.0</v>
       </c>
       <c r="BJ25" t="n" s="11">
-        <v>39346.0</v>
+        <v>39347.0</v>
       </c>
       <c r="BK25" t="n" s="11">
         <v>39195.0</v>
       </c>
       <c r="BL25" t="n" s="11">
-        <v>39430.0</v>
+        <v>39431.0</v>
       </c>
       <c r="BM25" t="n" s="11">
-        <v>39655.0</v>
+        <v>39654.0</v>
       </c>
       <c r="BN25" t="n" s="11">
         <v>39794.0</v>
       </c>
       <c r="BO25" t="n" s="11">
-        <v>39991.0</v>
+        <v>39990.0</v>
       </c>
       <c r="BP25" t="n" s="11">
         <v>40154.0</v>
       </c>
       <c r="BQ25" t="n" s="11">
-        <v>40263.0</v>
+        <v>40262.0</v>
       </c>
       <c r="BR25" t="n" s="11">
         <v>40420.0</v>
       </c>
       <c r="BS25" t="n" s="11">
-        <v>40654.0</v>
+        <v>40655.0</v>
       </c>
       <c r="BT25" t="n" s="11">
-        <v>40737.0</v>
+        <v>40738.0</v>
       </c>
       <c r="BU25" t="n" s="11">
-        <v>40851.0</v>
+        <v>40850.0</v>
       </c>
       <c r="BV25" t="n" s="11">
         <v>40945.0</v>
       </c>
       <c r="BW25" t="n" s="11">
-        <v>40964.0</v>
+        <v>40965.0</v>
       </c>
       <c r="BX25" t="n" s="11">
         <v>40859.0</v>
       </c>
       <c r="BY25" t="n" s="11">
-        <v>40801.0</v>
+        <v>40800.0</v>
       </c>
       <c r="BZ25" t="n" s="11">
         <v>40816.0</v>
@@ -10257,69 +10549,81 @@
         <v>43907.0</v>
       </c>
       <c r="DD25" t="n" s="11">
-        <v>44060.0</v>
+        <v>44059.0</v>
       </c>
       <c r="DE25" t="n" s="11">
         <v>44212.0</v>
       </c>
       <c r="DF25" t="n" s="11">
-        <v>44346.0</v>
+        <v>44348.0</v>
       </c>
       <c r="DG25" t="n" s="11">
-        <v>44538.0</v>
+        <v>44537.0</v>
       </c>
       <c r="DH25" t="n" s="11">
-        <v>44676.0</v>
+        <v>44674.0</v>
       </c>
       <c r="DI25" t="n" s="11">
-        <v>44781.0</v>
+        <v>44780.0</v>
       </c>
       <c r="DJ25" t="n" s="11">
-        <v>44883.0</v>
+        <v>44888.0</v>
       </c>
       <c r="DK25" t="n" s="11">
-        <v>45033.0</v>
+        <v>45034.0</v>
       </c>
       <c r="DL25" t="n" s="11">
-        <v>45132.0</v>
+        <v>45128.0</v>
       </c>
       <c r="DM25" t="n" s="11">
-        <v>45144.0</v>
+        <v>45142.0</v>
       </c>
       <c r="DN25" t="n" s="11">
-        <v>45191.0</v>
+        <v>45199.0</v>
       </c>
       <c r="DO25" t="n" s="11">
-        <v>45244.0</v>
+        <v>45242.0</v>
       </c>
       <c r="DP25" t="n" s="11">
-        <v>44688.0</v>
+        <v>44682.0</v>
       </c>
       <c r="DQ25" t="n" s="11">
-        <v>44643.0</v>
+        <v>44640.0</v>
       </c>
       <c r="DR25" t="n" s="11">
-        <v>44639.0</v>
+        <v>44652.0</v>
       </c>
       <c r="DS25" t="n" s="11">
-        <v>44580.0</v>
+        <v>44578.0</v>
       </c>
       <c r="DT25" t="n" s="11">
-        <v>44693.0</v>
+        <v>44686.0</v>
       </c>
       <c r="DU25" t="n" s="11">
-        <v>44895.0</v>
+        <v>44891.0</v>
       </c>
       <c r="DV25" t="n" s="11">
-        <v>45042.0</v>
+        <v>45047.0</v>
+      </c>
+      <c r="DW25" t="n" s="11">
+        <v>45257.0</v>
+      </c>
+      <c r="DX25" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY25" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ25" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="n" s="11">
         <v>3564.0</v>
@@ -10415,7 +10719,7 @@
         <v>3968.0</v>
       </c>
       <c r="AH26" t="n" s="11">
-        <v>3974.0</v>
+        <v>3975.0</v>
       </c>
       <c r="AI26" t="n" s="11">
         <v>3984.0</v>
@@ -10424,13 +10728,13 @@
         <v>3989.0</v>
       </c>
       <c r="AK26" t="n" s="11">
-        <v>3994.0</v>
+        <v>3993.0</v>
       </c>
       <c r="AL26" t="n" s="11">
         <v>4000.0</v>
       </c>
       <c r="AM26" t="n" s="11">
-        <v>4005.0</v>
+        <v>4006.0</v>
       </c>
       <c r="AN26" t="n" s="11">
         <v>4010.0</v>
@@ -10451,7 +10755,7 @@
         <v>4031.0</v>
       </c>
       <c r="AT26" t="n" s="11">
-        <v>4040.0</v>
+        <v>4039.0</v>
       </c>
       <c r="AU26" t="n" s="11">
         <v>4042.0</v>
@@ -10466,7 +10770,7 @@
         <v>4085.0</v>
       </c>
       <c r="AY26" t="n" s="11">
-        <v>4099.0</v>
+        <v>4100.0</v>
       </c>
       <c r="AZ26" t="n" s="11">
         <v>4120.0</v>
@@ -10484,7 +10788,7 @@
         <v>4245.0</v>
       </c>
       <c r="BE26" t="n" s="11">
-        <v>4276.0</v>
+        <v>4275.0</v>
       </c>
       <c r="BF26" t="n" s="11">
         <v>4308.0</v>
@@ -10499,7 +10803,7 @@
         <v>4395.0</v>
       </c>
       <c r="BJ26" t="n" s="11">
-        <v>4409.0</v>
+        <v>4410.0</v>
       </c>
       <c r="BK26" t="n" s="11">
         <v>4422.0</v>
@@ -10514,7 +10818,7 @@
         <v>4451.0</v>
       </c>
       <c r="BO26" t="n" s="11">
-        <v>4461.0</v>
+        <v>4460.0</v>
       </c>
       <c r="BP26" t="n" s="11">
         <v>4468.0</v>
@@ -10628,13 +10932,13 @@
         <v>4351.0</v>
       </c>
       <c r="DA26" t="n" s="11">
-        <v>4332.0</v>
+        <v>4333.0</v>
       </c>
       <c r="DB26" t="n" s="11">
-        <v>4314.0</v>
+        <v>4313.0</v>
       </c>
       <c r="DC26" t="n" s="11">
-        <v>4295.0</v>
+        <v>4294.0</v>
       </c>
       <c r="DD26" t="n" s="11">
         <v>4278.0</v>
@@ -10649,57 +10953,69 @@
         <v>4243.0</v>
       </c>
       <c r="DH26" t="n" s="11">
-        <v>4232.0</v>
+        <v>4231.0</v>
       </c>
       <c r="DI26" t="n" s="11">
         <v>4217.0</v>
       </c>
       <c r="DJ26" t="n" s="11">
-        <v>4203.0</v>
+        <v>4204.0</v>
       </c>
       <c r="DK26" t="n" s="11">
-        <v>4186.0</v>
+        <v>4187.0</v>
       </c>
       <c r="DL26" t="n" s="11">
-        <v>4166.0</v>
+        <v>4165.0</v>
       </c>
       <c r="DM26" t="n" s="11">
         <v>4139.0</v>
       </c>
       <c r="DN26" t="n" s="11">
-        <v>4113.0</v>
+        <v>4114.0</v>
       </c>
       <c r="DO26" t="n" s="11">
         <v>4087.0</v>
       </c>
       <c r="DP26" t="n" s="11">
-        <v>4055.0</v>
+        <v>4053.0</v>
       </c>
       <c r="DQ26" t="n" s="11">
-        <v>4025.0</v>
+        <v>4024.0</v>
       </c>
       <c r="DR26" t="n" s="11">
-        <v>3984.0</v>
+        <v>3986.0</v>
       </c>
       <c r="DS26" t="n" s="11">
-        <v>3948.0</v>
+        <v>3950.0</v>
       </c>
       <c r="DT26" t="n" s="11">
-        <v>3929.0</v>
+        <v>3928.0</v>
       </c>
       <c r="DU26" t="n" s="11">
         <v>3922.0</v>
       </c>
       <c r="DV26" t="n" s="11">
         <v>3916.0</v>
+      </c>
+      <c r="DW26" t="n" s="11">
+        <v>3917.0</v>
+      </c>
+      <c r="DX26" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY26" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ26" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="n" s="11">
         <v>35692.0</v>
@@ -10738,7 +11054,7 @@
         <v>34037.0</v>
       </c>
       <c r="O27" t="n" s="11">
-        <v>34108.0</v>
+        <v>34109.0</v>
       </c>
       <c r="P27" t="n" s="11">
         <v>34064.0</v>
@@ -10747,10 +11063,10 @@
         <v>34108.0</v>
       </c>
       <c r="R27" t="n" s="11">
-        <v>34165.0</v>
+        <v>34166.0</v>
       </c>
       <c r="S27" t="n" s="11">
-        <v>34157.0</v>
+        <v>34158.0</v>
       </c>
       <c r="T27" t="n" s="11">
         <v>34168.0</v>
@@ -10780,34 +11096,34 @@
         <v>34028.0</v>
       </c>
       <c r="AC27" t="n" s="11">
-        <v>34077.0</v>
+        <v>34076.0</v>
       </c>
       <c r="AD27" t="n" s="11">
-        <v>34067.0</v>
+        <v>34068.0</v>
       </c>
       <c r="AE27" t="n" s="11">
-        <v>34136.0</v>
+        <v>34137.0</v>
       </c>
       <c r="AF27" t="n" s="11">
         <v>34336.0</v>
       </c>
       <c r="AG27" t="n" s="11">
-        <v>34565.0</v>
+        <v>34564.0</v>
       </c>
       <c r="AH27" t="n" s="11">
-        <v>34718.0</v>
+        <v>34719.0</v>
       </c>
       <c r="AI27" t="n" s="11">
-        <v>34788.0</v>
+        <v>34789.0</v>
       </c>
       <c r="AJ27" t="n" s="11">
         <v>34815.0</v>
       </c>
       <c r="AK27" t="n" s="11">
-        <v>35143.0</v>
+        <v>35142.0</v>
       </c>
       <c r="AL27" t="n" s="11">
-        <v>35349.0</v>
+        <v>35350.0</v>
       </c>
       <c r="AM27" t="n" s="11">
         <v>35709.0</v>
@@ -10816,55 +11132,55 @@
         <v>35843.0</v>
       </c>
       <c r="AO27" t="n" s="11">
-        <v>35884.0</v>
+        <v>35883.0</v>
       </c>
       <c r="AP27" t="n" s="11">
         <v>35896.0</v>
       </c>
       <c r="AQ27" t="n" s="11">
-        <v>35741.0</v>
+        <v>35742.0</v>
       </c>
       <c r="AR27" t="n" s="11">
-        <v>35725.0</v>
+        <v>35724.0</v>
       </c>
       <c r="AS27" t="n" s="11">
         <v>35645.0</v>
       </c>
       <c r="AT27" t="n" s="11">
-        <v>35649.0</v>
+        <v>35650.0</v>
       </c>
       <c r="AU27" t="n" s="11">
-        <v>35660.0</v>
+        <v>35661.0</v>
       </c>
       <c r="AV27" t="n" s="11">
         <v>35548.0</v>
       </c>
       <c r="AW27" t="n" s="11">
-        <v>35410.0</v>
+        <v>35409.0</v>
       </c>
       <c r="AX27" t="n" s="11">
         <v>35270.0</v>
       </c>
       <c r="AY27" t="n" s="11">
-        <v>35125.0</v>
+        <v>35126.0</v>
       </c>
       <c r="AZ27" t="n" s="11">
         <v>34924.0</v>
       </c>
       <c r="BA27" t="n" s="11">
-        <v>34938.0</v>
+        <v>34937.0</v>
       </c>
       <c r="BB27" t="n" s="11">
         <v>34918.0</v>
       </c>
       <c r="BC27" t="n" s="11">
-        <v>34987.0</v>
+        <v>34988.0</v>
       </c>
       <c r="BD27" t="n" s="11">
         <v>35032.0</v>
       </c>
       <c r="BE27" t="n" s="11">
-        <v>34981.0</v>
+        <v>34980.0</v>
       </c>
       <c r="BF27" t="n" s="11">
         <v>34928.0</v>
@@ -10873,10 +11189,10 @@
         <v>34794.0</v>
       </c>
       <c r="BH27" t="n" s="11">
-        <v>34747.0</v>
+        <v>34748.0</v>
       </c>
       <c r="BI27" t="n" s="11">
-        <v>34818.0</v>
+        <v>34816.0</v>
       </c>
       <c r="BJ27" t="n" s="11">
         <v>34937.0</v>
@@ -10885,10 +11201,10 @@
         <v>34773.0</v>
       </c>
       <c r="BL27" t="n" s="11">
-        <v>34998.0</v>
+        <v>34999.0</v>
       </c>
       <c r="BM27" t="n" s="11">
-        <v>35214.0</v>
+        <v>35213.0</v>
       </c>
       <c r="BN27" t="n" s="11">
         <v>35343.0</v>
@@ -10900,31 +11216,31 @@
         <v>35686.0</v>
       </c>
       <c r="BQ27" t="n" s="11">
-        <v>35791.0</v>
+        <v>35790.0</v>
       </c>
       <c r="BR27" t="n" s="11">
         <v>35946.0</v>
       </c>
       <c r="BS27" t="n" s="11">
-        <v>36177.0</v>
+        <v>36178.0</v>
       </c>
       <c r="BT27" t="n" s="11">
-        <v>36259.0</v>
+        <v>36260.0</v>
       </c>
       <c r="BU27" t="n" s="11">
-        <v>36372.0</v>
+        <v>36371.0</v>
       </c>
       <c r="BV27" t="n" s="11">
         <v>36463.0</v>
       </c>
       <c r="BW27" t="n" s="11">
-        <v>36481.0</v>
+        <v>36482.0</v>
       </c>
       <c r="BX27" t="n" s="11">
         <v>36369.0</v>
       </c>
       <c r="BY27" t="n" s="11">
-        <v>36307.0</v>
+        <v>36306.0</v>
       </c>
       <c r="BZ27" t="n" s="11">
         <v>36319.0</v>
@@ -11008,78 +11324,90 @@
         <v>39142.0</v>
       </c>
       <c r="DA27" t="n" s="11">
-        <v>39289.0</v>
+        <v>39288.0</v>
       </c>
       <c r="DB27" t="n" s="11">
-        <v>39470.0</v>
+        <v>39471.0</v>
       </c>
       <c r="DC27" t="n" s="11">
-        <v>39612.0</v>
+        <v>39613.0</v>
       </c>
       <c r="DD27" t="n" s="11">
-        <v>39782.0</v>
+        <v>39781.0</v>
       </c>
       <c r="DE27" t="n" s="11">
         <v>39948.0</v>
       </c>
       <c r="DF27" t="n" s="11">
-        <v>40092.0</v>
+        <v>40094.0</v>
       </c>
       <c r="DG27" t="n" s="11">
-        <v>40295.0</v>
+        <v>40294.0</v>
       </c>
       <c r="DH27" t="n" s="11">
-        <v>40444.0</v>
+        <v>40443.0</v>
       </c>
       <c r="DI27" t="n" s="11">
-        <v>40564.0</v>
+        <v>40563.0</v>
       </c>
       <c r="DJ27" t="n" s="11">
-        <v>40680.0</v>
+        <v>40684.0</v>
       </c>
       <c r="DK27" t="n" s="11">
         <v>40847.0</v>
       </c>
       <c r="DL27" t="n" s="11">
-        <v>40966.0</v>
+        <v>40963.0</v>
       </c>
       <c r="DM27" t="n" s="11">
-        <v>41005.0</v>
+        <v>41003.0</v>
       </c>
       <c r="DN27" t="n" s="11">
-        <v>41078.0</v>
+        <v>41085.0</v>
       </c>
       <c r="DO27" t="n" s="11">
-        <v>41157.0</v>
+        <v>41155.0</v>
       </c>
       <c r="DP27" t="n" s="11">
-        <v>40633.0</v>
+        <v>40629.0</v>
       </c>
       <c r="DQ27" t="n" s="11">
-        <v>40618.0</v>
+        <v>40616.0</v>
       </c>
       <c r="DR27" t="n" s="11">
-        <v>40655.0</v>
+        <v>40666.0</v>
       </c>
       <c r="DS27" t="n" s="11">
-        <v>40632.0</v>
+        <v>40628.0</v>
       </c>
       <c r="DT27" t="n" s="11">
-        <v>40764.0</v>
+        <v>40758.0</v>
       </c>
       <c r="DU27" t="n" s="11">
-        <v>40973.0</v>
+        <v>40969.0</v>
       </c>
       <c r="DV27" t="n" s="11">
-        <v>41126.0</v>
+        <v>41131.0</v>
+      </c>
+      <c r="DW27" t="n" s="11">
+        <v>41340.0</v>
+      </c>
+      <c r="DX27" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY27" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ27" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="n" s="11">
         <v>-64.0</v>
@@ -11118,7 +11446,7 @@
         <v>-3.0</v>
       </c>
       <c r="O28" t="n" s="11">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="P28" t="n" s="11">
         <v>14.0</v>
@@ -11127,10 +11455,10 @@
         <v>15.0</v>
       </c>
       <c r="R28" t="n" s="11">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="S28" t="n" s="11">
-        <v>68.0</v>
+        <v>67.0</v>
       </c>
       <c r="T28" t="n" s="11">
         <v>70.0</v>
@@ -11160,34 +11488,34 @@
         <v>85.0</v>
       </c>
       <c r="AC28" t="n" s="11">
+        <v>88.0</v>
+      </c>
+      <c r="AD28" t="n" s="11">
+        <v>86.0</v>
+      </c>
+      <c r="AE28" t="n" s="11">
         <v>87.0</v>
-      </c>
-      <c r="AD28" t="n" s="11">
-        <v>87.0</v>
-      </c>
-      <c r="AE28" t="n" s="11">
-        <v>88.0</v>
       </c>
       <c r="AF28" t="n" s="11">
         <v>91.0</v>
       </c>
       <c r="AG28" t="n" s="11">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="AH28" t="n" s="11">
-        <v>92.0</v>
+        <v>91.0</v>
       </c>
       <c r="AI28" t="n" s="11">
-        <v>99.0</v>
+        <v>98.0</v>
       </c>
       <c r="AJ28" t="n" s="11">
         <v>86.0</v>
       </c>
       <c r="AK28" t="n" s="11">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="AL28" t="n" s="11">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="AM28" t="n" s="11">
         <v>133.0</v>
@@ -11196,16 +11524,16 @@
         <v>123.0</v>
       </c>
       <c r="AO28" t="n" s="11">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
       <c r="AP28" t="n" s="11">
         <v>115.0</v>
       </c>
       <c r="AQ28" t="n" s="11">
-        <v>163.0</v>
+        <v>162.0</v>
       </c>
       <c r="AR28" t="n" s="11">
-        <v>150.0</v>
+        <v>151.0</v>
       </c>
       <c r="AS28" t="n" s="11">
         <v>127.0</v>
@@ -11214,37 +11542,37 @@
         <v>126.0</v>
       </c>
       <c r="AU28" t="n" s="11">
-        <v>128.0</v>
+        <v>127.0</v>
       </c>
       <c r="AV28" t="n" s="11">
         <v>153.0</v>
       </c>
       <c r="AW28" t="n" s="11">
-        <v>133.0</v>
+        <v>134.0</v>
       </c>
       <c r="AX28" t="n" s="11">
         <v>113.0</v>
       </c>
       <c r="AY28" t="n" s="11">
-        <v>127.0</v>
+        <v>126.0</v>
       </c>
       <c r="AZ28" t="n" s="11">
         <v>138.0</v>
       </c>
       <c r="BA28" t="n" s="11">
-        <v>123.0</v>
+        <v>124.0</v>
       </c>
       <c r="BB28" t="n" s="11">
         <v>115.0</v>
       </c>
       <c r="BC28" t="n" s="11">
-        <v>120.0</v>
+        <v>119.0</v>
       </c>
       <c r="BD28" t="n" s="11">
         <v>130.0</v>
       </c>
       <c r="BE28" t="n" s="11">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
       <c r="BF28" t="n" s="11">
         <v>109.0</v>
@@ -11253,10 +11581,10 @@
         <v>109.0</v>
       </c>
       <c r="BH28" t="n" s="11">
-        <v>112.0</v>
+        <v>111.0</v>
       </c>
       <c r="BI28" t="n" s="11">
-        <v>111.0</v>
+        <v>113.0</v>
       </c>
       <c r="BJ28" t="n" s="11">
         <v>91.0</v>
@@ -11265,10 +11593,10 @@
         <v>82.0</v>
       </c>
       <c r="BL28" t="n" s="11">
-        <v>85.0</v>
+        <v>84.0</v>
       </c>
       <c r="BM28" t="n" s="11">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="BN28" t="n" s="11">
         <v>72.0</v>
@@ -11280,31 +11608,31 @@
         <v>57.0</v>
       </c>
       <c r="BQ28" t="n" s="11">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="BR28" t="n" s="11">
         <v>67.0</v>
       </c>
       <c r="BS28" t="n" s="11">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="BT28" t="n" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="BU28" t="n" s="11">
         <v>39.0</v>
-      </c>
-      <c r="BU28" t="n" s="11">
-        <v>38.0</v>
       </c>
       <c r="BV28" t="n" s="11">
         <v>43.0</v>
       </c>
       <c r="BW28" t="n" s="11">
-        <v>52.0</v>
+        <v>51.0</v>
       </c>
       <c r="BX28" t="n" s="11">
         <v>48.0</v>
       </c>
       <c r="BY28" t="n" s="11">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="BZ28" t="n" s="11">
         <v>36.0</v>
@@ -11406,10 +11734,10 @@
         <v>129.0</v>
       </c>
       <c r="DG28" t="n" s="11">
-        <v>129.0</v>
+        <v>130.0</v>
       </c>
       <c r="DH28" t="n" s="11">
-        <v>140.0</v>
+        <v>139.0</v>
       </c>
       <c r="DI28" t="n" s="11">
         <v>145.0</v>
@@ -11421,7 +11749,7 @@
         <v>138.0</v>
       </c>
       <c r="DL28" t="n" s="11">
-        <v>146.0</v>
+        <v>145.0</v>
       </c>
       <c r="DM28" t="n" s="11">
         <v>146.0</v>
@@ -11430,36 +11758,48 @@
         <v>143.0</v>
       </c>
       <c r="DO28" t="n" s="11">
-        <v>135.0</v>
+        <v>136.0</v>
       </c>
       <c r="DP28" t="n" s="11">
-        <v>83.0</v>
+        <v>82.0</v>
       </c>
       <c r="DQ28" t="n" s="11">
         <v>67.0</v>
       </c>
       <c r="DR28" t="n" s="11">
-        <v>97.0</v>
+        <v>96.0</v>
       </c>
       <c r="DS28" t="n" s="11">
-        <v>118.0</v>
+        <v>119.0</v>
       </c>
       <c r="DT28" t="n" s="11">
-        <v>117.0</v>
+        <v>115.0</v>
       </c>
       <c r="DU28" t="n" s="11">
-        <v>110.0</v>
+        <v>112.0</v>
       </c>
       <c r="DV28" t="n" s="11">
-        <v>120.0</v>
+        <v>121.0</v>
+      </c>
+      <c r="DW28" t="n" s="11">
+        <v>128.0</v>
+      </c>
+      <c r="DX28" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY28" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ28" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="n" s="11">
         <v>35628.0</v>
@@ -11591,7 +11931,7 @@
         <v>35772.0</v>
       </c>
       <c r="AT29" t="n" s="11">
-        <v>35775.0</v>
+        <v>35776.0</v>
       </c>
       <c r="AU29" t="n" s="11">
         <v>35788.0</v>
@@ -11768,78 +12108,90 @@
         <v>39241.0</v>
       </c>
       <c r="DA29" t="n" s="11">
-        <v>39395.0</v>
+        <v>39394.0</v>
       </c>
       <c r="DB29" t="n" s="11">
-        <v>39578.0</v>
+        <v>39579.0</v>
       </c>
       <c r="DC29" t="n" s="11">
-        <v>39721.0</v>
+        <v>39722.0</v>
       </c>
       <c r="DD29" t="n" s="11">
-        <v>39900.0</v>
+        <v>39899.0</v>
       </c>
       <c r="DE29" t="n" s="11">
         <v>40073.0</v>
       </c>
       <c r="DF29" t="n" s="11">
-        <v>40221.0</v>
+        <v>40223.0</v>
       </c>
       <c r="DG29" t="n" s="11">
         <v>40424.0</v>
       </c>
       <c r="DH29" t="n" s="11">
-        <v>40584.0</v>
+        <v>40582.0</v>
       </c>
       <c r="DI29" t="n" s="11">
-        <v>40709.0</v>
+        <v>40708.0</v>
       </c>
       <c r="DJ29" t="n" s="11">
-        <v>40825.0</v>
+        <v>40829.0</v>
       </c>
       <c r="DK29" t="n" s="11">
         <v>40985.0</v>
       </c>
       <c r="DL29" t="n" s="11">
-        <v>41112.0</v>
+        <v>41108.0</v>
       </c>
       <c r="DM29" t="n" s="11">
-        <v>41151.0</v>
+        <v>41149.0</v>
       </c>
       <c r="DN29" t="n" s="11">
-        <v>41221.0</v>
+        <v>41228.0</v>
       </c>
       <c r="DO29" t="n" s="11">
-        <v>41292.0</v>
+        <v>41291.0</v>
       </c>
       <c r="DP29" t="n" s="11">
-        <v>40716.0</v>
+        <v>40711.0</v>
       </c>
       <c r="DQ29" t="n" s="11">
-        <v>40685.0</v>
+        <v>40683.0</v>
       </c>
       <c r="DR29" t="n" s="11">
-        <v>40752.0</v>
+        <v>40762.0</v>
       </c>
       <c r="DS29" t="n" s="11">
-        <v>40750.0</v>
+        <v>40747.0</v>
       </c>
       <c r="DT29" t="n" s="11">
-        <v>40881.0</v>
+        <v>40873.0</v>
       </c>
       <c r="DU29" t="n" s="11">
-        <v>41083.0</v>
+        <v>41081.0</v>
       </c>
       <c r="DV29" t="n" s="11">
-        <v>41246.0</v>
+        <v>41252.0</v>
+      </c>
+      <c r="DW29" t="n" s="11">
+        <v>41468.0</v>
+      </c>
+      <c r="DX29" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY29" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ29" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="n" s="11">
         <v>3564.0</v>
@@ -11935,7 +12287,7 @@
         <v>3968.0</v>
       </c>
       <c r="AH30" t="n" s="11">
-        <v>3974.0</v>
+        <v>3975.0</v>
       </c>
       <c r="AI30" t="n" s="11">
         <v>3984.0</v>
@@ -11944,13 +12296,13 @@
         <v>3989.0</v>
       </c>
       <c r="AK30" t="n" s="11">
-        <v>3994.0</v>
+        <v>3993.0</v>
       </c>
       <c r="AL30" t="n" s="11">
         <v>4000.0</v>
       </c>
       <c r="AM30" t="n" s="11">
-        <v>4005.0</v>
+        <v>4006.0</v>
       </c>
       <c r="AN30" t="n" s="11">
         <v>4010.0</v>
@@ -11971,7 +12323,7 @@
         <v>4031.0</v>
       </c>
       <c r="AT30" t="n" s="11">
-        <v>4040.0</v>
+        <v>4039.0</v>
       </c>
       <c r="AU30" t="n" s="11">
         <v>4042.0</v>
@@ -11986,7 +12338,7 @@
         <v>4085.0</v>
       </c>
       <c r="AY30" t="n" s="11">
-        <v>4099.0</v>
+        <v>4100.0</v>
       </c>
       <c r="AZ30" t="n" s="11">
         <v>4120.0</v>
@@ -12004,7 +12356,7 @@
         <v>4245.0</v>
       </c>
       <c r="BE30" t="n" s="11">
-        <v>4276.0</v>
+        <v>4275.0</v>
       </c>
       <c r="BF30" t="n" s="11">
         <v>4308.0</v>
@@ -12019,7 +12371,7 @@
         <v>4395.0</v>
       </c>
       <c r="BJ30" t="n" s="11">
-        <v>4409.0</v>
+        <v>4410.0</v>
       </c>
       <c r="BK30" t="n" s="11">
         <v>4422.0</v>
@@ -12034,7 +12386,7 @@
         <v>4451.0</v>
       </c>
       <c r="BO30" t="n" s="11">
-        <v>4461.0</v>
+        <v>4460.0</v>
       </c>
       <c r="BP30" t="n" s="11">
         <v>4468.0</v>
@@ -12148,13 +12500,13 @@
         <v>4351.0</v>
       </c>
       <c r="DA30" t="n" s="11">
-        <v>4332.0</v>
+        <v>4333.0</v>
       </c>
       <c r="DB30" t="n" s="11">
-        <v>4314.0</v>
+        <v>4313.0</v>
       </c>
       <c r="DC30" t="n" s="11">
-        <v>4295.0</v>
+        <v>4294.0</v>
       </c>
       <c r="DD30" t="n" s="11">
         <v>4278.0</v>
@@ -12169,57 +12521,69 @@
         <v>4243.0</v>
       </c>
       <c r="DH30" t="n" s="11">
-        <v>4232.0</v>
+        <v>4231.0</v>
       </c>
       <c r="DI30" t="n" s="11">
         <v>4217.0</v>
       </c>
       <c r="DJ30" t="n" s="11">
-        <v>4203.0</v>
+        <v>4204.0</v>
       </c>
       <c r="DK30" t="n" s="11">
-        <v>4186.0</v>
+        <v>4187.0</v>
       </c>
       <c r="DL30" t="n" s="11">
-        <v>4166.0</v>
+        <v>4165.0</v>
       </c>
       <c r="DM30" t="n" s="11">
         <v>4139.0</v>
       </c>
       <c r="DN30" t="n" s="11">
-        <v>4113.0</v>
+        <v>4114.0</v>
       </c>
       <c r="DO30" t="n" s="11">
         <v>4087.0</v>
       </c>
       <c r="DP30" t="n" s="11">
-        <v>4055.0</v>
+        <v>4053.0</v>
       </c>
       <c r="DQ30" t="n" s="11">
-        <v>4025.0</v>
+        <v>4024.0</v>
       </c>
       <c r="DR30" t="n" s="11">
-        <v>3984.0</v>
+        <v>3986.0</v>
       </c>
       <c r="DS30" t="n" s="11">
-        <v>3948.0</v>
+        <v>3950.0</v>
       </c>
       <c r="DT30" t="n" s="11">
-        <v>3929.0</v>
+        <v>3928.0</v>
       </c>
       <c r="DU30" t="n" s="11">
         <v>3922.0</v>
       </c>
       <c r="DV30" t="n" s="11">
         <v>3916.0</v>
+      </c>
+      <c r="DW30" t="n" s="11">
+        <v>3917.0</v>
+      </c>
+      <c r="DX30" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY30" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ30" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" t="n" s="11">
         <v>39192.0</v>
@@ -12315,7 +12679,7 @@
         <v>38627.0</v>
       </c>
       <c r="AH31" t="n" s="11">
-        <v>38784.0</v>
+        <v>38785.0</v>
       </c>
       <c r="AI31" t="n" s="11">
         <v>38871.0</v>
@@ -12324,13 +12688,13 @@
         <v>38890.0</v>
       </c>
       <c r="AK31" t="n" s="11">
-        <v>39239.0</v>
+        <v>39238.0</v>
       </c>
       <c r="AL31" t="n" s="11">
         <v>39476.0</v>
       </c>
       <c r="AM31" t="n" s="11">
-        <v>39847.0</v>
+        <v>39848.0</v>
       </c>
       <c r="AN31" t="n" s="11">
         <v>39976.0</v>
@@ -12366,7 +12730,7 @@
         <v>39468.0</v>
       </c>
       <c r="AY31" t="n" s="11">
-        <v>39351.0</v>
+        <v>39352.0</v>
       </c>
       <c r="AZ31" t="n" s="11">
         <v>39182.0</v>
@@ -12384,7 +12748,7 @@
         <v>39407.0</v>
       </c>
       <c r="BE31" t="n" s="11">
-        <v>39373.0</v>
+        <v>39372.0</v>
       </c>
       <c r="BF31" t="n" s="11">
         <v>39345.0</v>
@@ -12399,7 +12763,7 @@
         <v>39324.0</v>
       </c>
       <c r="BJ31" t="n" s="11">
-        <v>39437.0</v>
+        <v>39438.0</v>
       </c>
       <c r="BK31" t="n" s="11">
         <v>39277.0</v>
@@ -12414,7 +12778,7 @@
         <v>39866.0</v>
       </c>
       <c r="BO31" t="n" s="11">
-        <v>40059.0</v>
+        <v>40058.0</v>
       </c>
       <c r="BP31" t="n" s="11">
         <v>40211.0</v>
@@ -12537,69 +12901,81 @@
         <v>44016.0</v>
       </c>
       <c r="DD31" t="n" s="11">
-        <v>44178.0</v>
+        <v>44177.0</v>
       </c>
       <c r="DE31" t="n" s="11">
         <v>44337.0</v>
       </c>
       <c r="DF31" t="n" s="11">
-        <v>44475.0</v>
+        <v>44477.0</v>
       </c>
       <c r="DG31" t="n" s="11">
         <v>44667.0</v>
       </c>
       <c r="DH31" t="n" s="11">
-        <v>44816.0</v>
+        <v>44813.0</v>
       </c>
       <c r="DI31" t="n" s="11">
-        <v>44926.0</v>
+        <v>44925.0</v>
       </c>
       <c r="DJ31" t="n" s="11">
-        <v>45028.0</v>
+        <v>45033.0</v>
       </c>
       <c r="DK31" t="n" s="11">
-        <v>45171.0</v>
+        <v>45172.0</v>
       </c>
       <c r="DL31" t="n" s="11">
-        <v>45278.0</v>
+        <v>45273.0</v>
       </c>
       <c r="DM31" t="n" s="11">
-        <v>45290.0</v>
+        <v>45288.0</v>
       </c>
       <c r="DN31" t="n" s="11">
-        <v>45334.0</v>
+        <v>45342.0</v>
       </c>
       <c r="DO31" t="n" s="11">
-        <v>45379.0</v>
+        <v>45378.0</v>
       </c>
       <c r="DP31" t="n" s="11">
-        <v>44771.0</v>
+        <v>44764.0</v>
       </c>
       <c r="DQ31" t="n" s="11">
-        <v>44710.0</v>
+        <v>44707.0</v>
       </c>
       <c r="DR31" t="n" s="11">
-        <v>44736.0</v>
+        <v>44748.0</v>
       </c>
       <c r="DS31" t="n" s="11">
-        <v>44698.0</v>
+        <v>44697.0</v>
       </c>
       <c r="DT31" t="n" s="11">
-        <v>44810.0</v>
+        <v>44801.0</v>
       </c>
       <c r="DU31" t="n" s="11">
-        <v>45005.0</v>
+        <v>45003.0</v>
       </c>
       <c r="DV31" t="n" s="11">
-        <v>45162.0</v>
+        <v>45168.0</v>
+      </c>
+      <c r="DW31" t="n" s="11">
+        <v>45385.0</v>
+      </c>
+      <c r="DX31" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY31" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ31" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32" t="n" s="11">
         <v>51.8</v>
@@ -12941,19 +13317,19 @@
         <v>55.9</v>
       </c>
       <c r="DL32" t="n" s="11">
-        <v>55.9</v>
+        <v>56.0</v>
       </c>
       <c r="DM32" t="n" s="11">
         <v>55.9</v>
       </c>
       <c r="DN32" t="n" s="11">
-        <v>56.0</v>
+        <v>56.1</v>
       </c>
       <c r="DO32" t="n" s="11">
         <v>56.2</v>
       </c>
       <c r="DP32" t="n" s="11">
-        <v>55.8</v>
+        <v>55.7</v>
       </c>
       <c r="DQ32" t="n" s="11">
         <v>55.8</v>
@@ -12965,21 +13341,33 @@
         <v>55.6</v>
       </c>
       <c r="DT32" t="n" s="11">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="DU32" t="n" s="11">
         <v>55.7</v>
       </c>
       <c r="DV32" t="n" s="11">
         <v>55.8</v>
+      </c>
+      <c r="DW32" t="n" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="DX32" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY32" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ32" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C33" t="n" s="11">
         <v>5.0</v>
@@ -13249,7 +13637,7 @@
         <v>5.0</v>
       </c>
       <c r="CN33" t="n" s="11">
-        <v>4.9</v>
+        <v>5.0</v>
       </c>
       <c r="CO33" t="n" s="11">
         <v>4.9</v>
@@ -13345,62 +13733,74 @@
         <v>3.6</v>
       </c>
       <c r="DT33" t="n" s="11">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="DU33" t="n" s="11">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="DV33" t="n" s="11">
         <v>3.0</v>
+      </c>
+      <c r="DW33" t="n" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="DX33" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY33" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ33" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="34" ht="33.75" customHeight="true">
       <c r="A34" t="s" s="15">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="n" s="11">
-        <v>79823.0</v>
+        <v>79821.0</v>
       </c>
       <c r="D35" t="n" s="11">
-        <v>79912.0</v>
+        <v>79920.0</v>
       </c>
       <c r="E35" t="n" s="11">
-        <v>80018.0</v>
+        <v>80016.0</v>
       </c>
       <c r="F35" t="n" s="11">
-        <v>80137.0</v>
+        <v>80135.0</v>
       </c>
       <c r="G35" t="n" s="11">
-        <v>80276.0</v>
+        <v>80274.0</v>
       </c>
       <c r="H35" t="n" s="11">
-        <v>80406.0</v>
+        <v>80413.0</v>
       </c>
       <c r="I35" t="n" s="11">
-        <v>80582.0</v>
+        <v>80579.0</v>
       </c>
       <c r="J35" t="n" s="11">
-        <v>80741.0</v>
+        <v>80739.0</v>
       </c>
       <c r="K35" t="n" s="11">
-        <v>80836.0</v>
+        <v>80835.0</v>
       </c>
       <c r="L35" t="n" s="11">
-        <v>80930.0</v>
+        <v>80934.0</v>
       </c>
       <c r="M35" t="n" s="11">
-        <v>80997.0</v>
+        <v>80996.0</v>
       </c>
       <c r="N35" t="n" s="11">
-        <v>81033.0</v>
+        <v>81032.0</v>
       </c>
       <c r="O35" t="n" s="11">
         <v>81105.0</v>
@@ -13715,72 +14115,84 @@
         <v>83141.0</v>
       </c>
       <c r="DO35" t="n" s="11">
-        <v>83167.0</v>
+        <v>83168.0</v>
       </c>
       <c r="DP35" t="n" s="11">
-        <v>83157.0</v>
+        <v>83158.0</v>
       </c>
       <c r="DQ35" t="n" s="11">
-        <v>83162.0</v>
+        <v>83161.0</v>
       </c>
       <c r="DR35" t="n" s="11">
-        <v>83158.0</v>
+        <v>83153.0</v>
       </c>
       <c r="DS35" t="n" s="11">
-        <v>83155.0</v>
+        <v>83159.0</v>
       </c>
       <c r="DT35" t="n" s="11">
         <v>83182.0</v>
       </c>
       <c r="DU35" t="n" s="11">
-        <v>83208.0</v>
+        <v>83205.0</v>
       </c>
       <c r="DV35" t="n" s="11">
-        <v>83236.0</v>
+        <v>83240.0</v>
+      </c>
+      <c r="DW35" t="n" s="11">
+        <v>83241.0</v>
+      </c>
+      <c r="DX35" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY35" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ35" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s" s="14">
         <v>43</v>
       </c>
-      <c r="B36" t="s" s="14">
-        <v>42</v>
-      </c>
       <c r="C36" t="n" s="11">
-        <v>38548.0</v>
+        <v>38546.0</v>
       </c>
       <c r="D36" t="n" s="11">
-        <v>38763.0</v>
+        <v>38771.0</v>
       </c>
       <c r="E36" t="n" s="11">
-        <v>39037.0</v>
+        <v>39035.0</v>
       </c>
       <c r="F36" t="n" s="11">
-        <v>39143.0</v>
+        <v>39141.0</v>
       </c>
       <c r="G36" t="n" s="11">
-        <v>39309.0</v>
+        <v>39307.0</v>
       </c>
       <c r="H36" t="n" s="11">
-        <v>39433.0</v>
+        <v>39440.0</v>
       </c>
       <c r="I36" t="n" s="11">
-        <v>39610.0</v>
+        <v>39607.0</v>
       </c>
       <c r="J36" t="n" s="11">
-        <v>39826.0</v>
+        <v>39824.0</v>
       </c>
       <c r="K36" t="n" s="11">
-        <v>39947.0</v>
+        <v>39946.0</v>
       </c>
       <c r="L36" t="n" s="11">
-        <v>40053.0</v>
+        <v>40057.0</v>
       </c>
       <c r="M36" t="n" s="11">
-        <v>40076.0</v>
+        <v>40075.0</v>
       </c>
       <c r="N36" t="n" s="11">
-        <v>40057.0</v>
+        <v>40056.0</v>
       </c>
       <c r="O36" t="n" s="11">
         <v>39995.0</v>
@@ -13921,19 +14333,19 @@
         <v>37643.0</v>
       </c>
       <c r="BI36" t="n" s="11">
-        <v>37639.0</v>
+        <v>37629.0</v>
       </c>
       <c r="BJ36" t="n" s="11">
+        <v>37619.0</v>
+      </c>
+      <c r="BK36" t="n" s="11">
+        <v>37734.0</v>
+      </c>
+      <c r="BL36" t="n" s="11">
         <v>37629.0</v>
       </c>
-      <c r="BK36" t="n" s="11">
-        <v>37744.0</v>
-      </c>
-      <c r="BL36" t="n" s="11">
-        <v>37639.0</v>
-      </c>
       <c r="BM36" t="n" s="11">
-        <v>37526.0</v>
+        <v>37516.0</v>
       </c>
       <c r="BN36" t="n" s="11">
         <v>37461.0</v>
@@ -13954,46 +14366,46 @@
         <v>37062.0</v>
       </c>
       <c r="BT36" t="n" s="11">
-        <v>36998.0</v>
+        <v>37008.0</v>
       </c>
       <c r="BU36" t="n" s="11">
         <v>36894.0</v>
       </c>
       <c r="BV36" t="n" s="11">
-        <v>36729.0</v>
+        <v>36739.0</v>
       </c>
       <c r="BW36" t="n" s="11">
-        <v>36605.0</v>
+        <v>36615.0</v>
       </c>
       <c r="BX36" t="n" s="11">
-        <v>36530.0</v>
+        <v>36540.0</v>
       </c>
       <c r="BY36" t="n" s="11">
-        <v>36493.0</v>
+        <v>36503.0</v>
       </c>
       <c r="BZ36" t="n" s="11">
         <v>36510.0</v>
       </c>
       <c r="CA36" t="n" s="11">
-        <v>36526.0</v>
+        <v>36516.0</v>
       </c>
       <c r="CB36" t="n" s="11">
-        <v>36471.0</v>
+        <v>36461.0</v>
       </c>
       <c r="CC36" t="n" s="11">
-        <v>36445.0</v>
+        <v>36435.0</v>
       </c>
       <c r="CD36" t="n" s="11">
         <v>36419.0</v>
       </c>
       <c r="CE36" t="n" s="11">
-        <v>36392.0</v>
+        <v>36402.0</v>
       </c>
       <c r="CF36" t="n" s="11">
-        <v>36368.0</v>
+        <v>36378.0</v>
       </c>
       <c r="CG36" t="n" s="11">
-        <v>36359.0</v>
+        <v>36369.0</v>
       </c>
       <c r="CH36" t="n" s="11">
         <v>36344.0</v>
@@ -14092,39 +14504,51 @@
         <v>36567.0</v>
       </c>
       <c r="DN36" t="n" s="11">
-        <v>36534.0</v>
+        <v>36535.0</v>
       </c>
       <c r="DO36" t="n" s="11">
-        <v>36480.0</v>
+        <v>36481.0</v>
       </c>
       <c r="DP36" t="n" s="11">
-        <v>36730.0</v>
+        <v>36732.0</v>
       </c>
       <c r="DQ36" t="n" s="11">
-        <v>36769.0</v>
+        <v>36778.0</v>
       </c>
       <c r="DR36" t="n" s="11">
-        <v>36829.0</v>
+        <v>36824.0</v>
       </c>
       <c r="DS36" t="n" s="11">
-        <v>36996.0</v>
+        <v>36971.0</v>
       </c>
       <c r="DT36" t="n" s="11">
-        <v>36849.0</v>
+        <v>36820.0</v>
       </c>
       <c r="DU36" t="n" s="11">
-        <v>36844.0</v>
+        <v>36818.0</v>
       </c>
       <c r="DV36" t="n" s="11">
-        <v>36833.0</v>
+        <v>36842.0</v>
+      </c>
+      <c r="DW36" t="n" s="11">
+        <v>36738.0</v>
+      </c>
+      <c r="DX36" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY36" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ36" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="n" s="11">
         <v>41275.0</v>
@@ -14301,19 +14725,19 @@
         <v>43710.0</v>
       </c>
       <c r="BI37" t="n" s="11">
-        <v>43685.0</v>
+        <v>43695.0</v>
       </c>
       <c r="BJ37" t="n" s="11">
-        <v>43658.0</v>
+        <v>43668.0</v>
       </c>
       <c r="BK37" t="n" s="11">
-        <v>43501.0</v>
+        <v>43511.0</v>
       </c>
       <c r="BL37" t="n" s="11">
-        <v>43561.0</v>
+        <v>43571.0</v>
       </c>
       <c r="BM37" t="n" s="11">
-        <v>43623.0</v>
+        <v>43633.0</v>
       </c>
       <c r="BN37" t="n" s="11">
         <v>43637.0</v>
@@ -14334,46 +14758,46 @@
         <v>43800.0</v>
       </c>
       <c r="BT37" t="n" s="11">
-        <v>43806.0</v>
+        <v>43796.0</v>
       </c>
       <c r="BU37" t="n" s="11">
         <v>43843.0</v>
       </c>
       <c r="BV37" t="n" s="11">
-        <v>43923.0</v>
+        <v>43913.0</v>
       </c>
       <c r="BW37" t="n" s="11">
-        <v>43982.0</v>
+        <v>43972.0</v>
       </c>
       <c r="BX37" t="n" s="11">
-        <v>43976.0</v>
+        <v>43966.0</v>
       </c>
       <c r="BY37" t="n" s="11">
-        <v>43952.0</v>
+        <v>43942.0</v>
       </c>
       <c r="BZ37" t="n" s="11">
         <v>43886.0</v>
       </c>
       <c r="CA37" t="n" s="11">
-        <v>43804.0</v>
+        <v>43814.0</v>
       </c>
       <c r="CB37" t="n" s="11">
-        <v>43826.0</v>
+        <v>43836.0</v>
       </c>
       <c r="CC37" t="n" s="11">
-        <v>43820.0</v>
+        <v>43830.0</v>
       </c>
       <c r="CD37" t="n" s="11">
         <v>43833.0</v>
       </c>
       <c r="CE37" t="n" s="11">
-        <v>43862.0</v>
+        <v>43852.0</v>
       </c>
       <c r="CF37" t="n" s="11">
-        <v>43892.0</v>
+        <v>43882.0</v>
       </c>
       <c r="CG37" t="n" s="11">
-        <v>43924.0</v>
+        <v>43914.0</v>
       </c>
       <c r="CH37" t="n" s="11">
         <v>43965.0</v>
@@ -14472,39 +14896,51 @@
         <v>46544.0</v>
       </c>
       <c r="DN37" t="n" s="11">
-        <v>46607.0</v>
+        <v>46606.0</v>
       </c>
       <c r="DO37" t="n" s="11">
         <v>46687.0</v>
       </c>
       <c r="DP37" t="n" s="11">
-        <v>46427.0</v>
+        <v>46426.0</v>
       </c>
       <c r="DQ37" t="n" s="11">
-        <v>46393.0</v>
+        <v>46383.0</v>
       </c>
       <c r="DR37" t="n" s="11">
         <v>46329.0</v>
       </c>
       <c r="DS37" t="n" s="11">
-        <v>46159.0</v>
+        <v>46188.0</v>
       </c>
       <c r="DT37" t="n" s="11">
-        <v>46333.0</v>
+        <v>46362.0</v>
       </c>
       <c r="DU37" t="n" s="11">
-        <v>46364.0</v>
+        <v>46387.0</v>
       </c>
       <c r="DV37" t="n" s="11">
-        <v>46403.0</v>
+        <v>46398.0</v>
+      </c>
+      <c r="DW37" t="n" s="11">
+        <v>46503.0</v>
+      </c>
+      <c r="DX37" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY37" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ37" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="n" s="11">
         <v>2060.0</v>
@@ -14681,19 +15117,19 @@
         <v>4570.0</v>
       </c>
       <c r="BI38" t="n" s="11">
-        <v>4500.0</v>
+        <v>4510.0</v>
       </c>
       <c r="BJ38" t="n" s="11">
-        <v>4370.0</v>
+        <v>4380.0</v>
       </c>
       <c r="BK38" t="n" s="11">
-        <v>4240.0</v>
+        <v>4250.0</v>
       </c>
       <c r="BL38" t="n" s="11">
-        <v>4120.0</v>
+        <v>4130.0</v>
       </c>
       <c r="BM38" t="n" s="11">
-        <v>3990.0</v>
+        <v>4000.0</v>
       </c>
       <c r="BN38" t="n" s="11">
         <v>3860.0</v>
@@ -14714,46 +15150,46 @@
         <v>3180.0</v>
       </c>
       <c r="BT38" t="n" s="11">
-        <v>3060.0</v>
+        <v>3050.0</v>
       </c>
       <c r="BU38" t="n" s="11">
         <v>2970.0</v>
       </c>
       <c r="BV38" t="n" s="11">
-        <v>2980.0</v>
+        <v>2970.0</v>
       </c>
       <c r="BW38" t="n" s="11">
-        <v>3040.0</v>
+        <v>3030.0</v>
       </c>
       <c r="BX38" t="n" s="11">
-        <v>3110.0</v>
+        <v>3100.0</v>
       </c>
       <c r="BY38" t="n" s="11">
-        <v>3140.0</v>
+        <v>3130.0</v>
       </c>
       <c r="BZ38" t="n" s="11">
         <v>3080.0</v>
       </c>
       <c r="CA38" t="n" s="11">
-        <v>2980.0</v>
+        <v>2990.0</v>
       </c>
       <c r="CB38" t="n" s="11">
-        <v>2870.0</v>
+        <v>2880.0</v>
       </c>
       <c r="CC38" t="n" s="11">
-        <v>2750.0</v>
+        <v>2760.0</v>
       </c>
       <c r="CD38" t="n" s="11">
         <v>2640.0</v>
       </c>
       <c r="CE38" t="n" s="11">
-        <v>2540.0</v>
+        <v>2530.0</v>
       </c>
       <c r="CF38" t="n" s="11">
-        <v>2450.0</v>
+        <v>2440.0</v>
       </c>
       <c r="CG38" t="n" s="11">
-        <v>2360.0</v>
+        <v>2350.0</v>
       </c>
       <c r="CH38" t="n" s="11">
         <v>2290.0</v>
@@ -14867,24 +15303,36 @@
         <v>1720.0</v>
       </c>
       <c r="DS38" t="n" s="11">
-        <v>1660.0</v>
+        <v>1670.0</v>
       </c>
       <c r="DT38" t="n" s="11">
-        <v>1560.0</v>
+        <v>1590.0</v>
       </c>
       <c r="DU38" t="n" s="11">
-        <v>1450.0</v>
+        <v>1490.0</v>
       </c>
       <c r="DV38" t="n" s="11">
         <v>1380.0</v>
+      </c>
+      <c r="DW38" t="n" s="11">
+        <v>1280.0</v>
+      </c>
+      <c r="DX38" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY38" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ38" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="10">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="n" s="11">
         <v>39215.0</v>
@@ -15232,39 +15680,51 @@
         <v>45184.0</v>
       </c>
       <c r="DN39" t="n" s="11">
-        <v>45177.0</v>
+        <v>45176.0</v>
       </c>
       <c r="DO39" t="n" s="11">
         <v>45147.0</v>
       </c>
       <c r="DP39" t="n" s="11">
-        <v>44777.0</v>
+        <v>44776.0</v>
       </c>
       <c r="DQ39" t="n" s="11">
-        <v>44673.0</v>
+        <v>44663.0</v>
       </c>
       <c r="DR39" t="n" s="11">
         <v>44609.0</v>
       </c>
       <c r="DS39" t="n" s="11">
-        <v>44499.0</v>
+        <v>44518.0</v>
       </c>
       <c r="DT39" t="n" s="11">
-        <v>44773.0</v>
+        <v>44772.0</v>
       </c>
       <c r="DU39" t="n" s="11">
-        <v>44914.0</v>
+        <v>44897.0</v>
       </c>
       <c r="DV39" t="n" s="11">
-        <v>45023.0</v>
+        <v>45018.0</v>
+      </c>
+      <c r="DW39" t="n" s="11">
+        <v>45223.0</v>
+      </c>
+      <c r="DX39" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY39" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ39" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="10">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="n" s="11">
         <v>3559.0</v>
@@ -15615,36 +16075,48 @@
         <v>4114.0</v>
       </c>
       <c r="DO40" t="n" s="11">
-        <v>4089.0</v>
+        <v>4088.0</v>
       </c>
       <c r="DP40" t="n" s="11">
         <v>4055.0</v>
       </c>
       <c r="DQ40" t="n" s="11">
-        <v>4023.0</v>
+        <v>4022.0</v>
       </c>
       <c r="DR40" t="n" s="11">
-        <v>3984.0</v>
+        <v>3985.0</v>
       </c>
       <c r="DS40" t="n" s="11">
-        <v>3951.0</v>
+        <v>3950.0</v>
       </c>
       <c r="DT40" t="n" s="11">
-        <v>3930.0</v>
+        <v>3931.0</v>
       </c>
       <c r="DU40" t="n" s="11">
-        <v>3920.0</v>
+        <v>3918.0</v>
       </c>
       <c r="DV40" t="n" s="11">
-        <v>3914.0</v>
+        <v>3915.0</v>
+      </c>
+      <c r="DW40" t="n" s="11">
+        <v>3919.0</v>
+      </c>
+      <c r="DX40" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY40" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ40" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="10">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="n" s="11">
         <v>35656.0</v>
@@ -15992,39 +16464,51 @@
         <v>41045.0</v>
       </c>
       <c r="DN41" t="n" s="11">
-        <v>41063.0</v>
+        <v>41062.0</v>
       </c>
       <c r="DO41" t="n" s="11">
-        <v>41058.0</v>
+        <v>41059.0</v>
       </c>
       <c r="DP41" t="n" s="11">
-        <v>40722.0</v>
+        <v>40721.0</v>
       </c>
       <c r="DQ41" t="n" s="11">
-        <v>40650.0</v>
+        <v>40641.0</v>
       </c>
       <c r="DR41" t="n" s="11">
-        <v>40625.0</v>
+        <v>40624.0</v>
       </c>
       <c r="DS41" t="n" s="11">
-        <v>40548.0</v>
+        <v>40568.0</v>
       </c>
       <c r="DT41" t="n" s="11">
-        <v>40843.0</v>
+        <v>40841.0</v>
       </c>
       <c r="DU41" t="n" s="11">
-        <v>40994.0</v>
+        <v>40979.0</v>
       </c>
       <c r="DV41" t="n" s="11">
-        <v>41109.0</v>
+        <v>41103.0</v>
+      </c>
+      <c r="DW41" t="n" s="11">
+        <v>41304.0</v>
+      </c>
+      <c r="DX41" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY41" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ41" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="10">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" t="n" s="11">
         <v>-72.0</v>
@@ -16381,30 +16865,42 @@
         <v>82.0</v>
       </c>
       <c r="DQ42" t="n" s="11">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="DR42" t="n" s="11">
-        <v>95.0</v>
+        <v>94.0</v>
       </c>
       <c r="DS42" t="n" s="11">
-        <v>105.0</v>
+        <v>106.0</v>
       </c>
       <c r="DT42" t="n" s="11">
         <v>116.0</v>
       </c>
       <c r="DU42" t="n" s="11">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
       <c r="DV42" t="n" s="11">
         <v>120.0</v>
+      </c>
+      <c r="DW42" t="n" s="11">
+        <v>117.0</v>
+      </c>
+      <c r="DX42" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY42" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ42" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="10">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43" t="n" s="11">
         <v>35584.0</v>
@@ -16752,39 +17248,51 @@
         <v>41196.0</v>
       </c>
       <c r="DN43" t="n" s="11">
-        <v>41203.0</v>
+        <v>41202.0</v>
       </c>
       <c r="DO43" t="n" s="11">
-        <v>41185.0</v>
+        <v>41186.0</v>
       </c>
       <c r="DP43" t="n" s="11">
-        <v>40804.0</v>
+        <v>40803.0</v>
       </c>
       <c r="DQ43" t="n" s="11">
-        <v>40732.0</v>
+        <v>40724.0</v>
       </c>
       <c r="DR43" t="n" s="11">
-        <v>40720.0</v>
+        <v>40718.0</v>
       </c>
       <c r="DS43" t="n" s="11">
-        <v>40653.0</v>
+        <v>40674.0</v>
       </c>
       <c r="DT43" t="n" s="11">
-        <v>40959.0</v>
+        <v>40957.0</v>
       </c>
       <c r="DU43" t="n" s="11">
-        <v>41120.0</v>
+        <v>41106.0</v>
       </c>
       <c r="DV43" t="n" s="11">
-        <v>41229.0</v>
+        <v>41223.0</v>
+      </c>
+      <c r="DW43" t="n" s="11">
+        <v>41421.0</v>
+      </c>
+      <c r="DX43" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY43" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ43" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" t="n" s="11">
         <v>3559.0</v>
@@ -17135,36 +17643,48 @@
         <v>4114.0</v>
       </c>
       <c r="DO44" t="n" s="11">
-        <v>4089.0</v>
+        <v>4088.0</v>
       </c>
       <c r="DP44" t="n" s="11">
         <v>4055.0</v>
       </c>
       <c r="DQ44" t="n" s="11">
-        <v>4023.0</v>
+        <v>4022.0</v>
       </c>
       <c r="DR44" t="n" s="11">
-        <v>3984.0</v>
+        <v>3985.0</v>
       </c>
       <c r="DS44" t="n" s="11">
-        <v>3951.0</v>
+        <v>3950.0</v>
       </c>
       <c r="DT44" t="n" s="11">
-        <v>3930.0</v>
+        <v>3931.0</v>
       </c>
       <c r="DU44" t="n" s="11">
-        <v>3920.0</v>
+        <v>3918.0</v>
       </c>
       <c r="DV44" t="n" s="11">
-        <v>3914.0</v>
+        <v>3915.0</v>
+      </c>
+      <c r="DW44" t="n" s="11">
+        <v>3919.0</v>
+      </c>
+      <c r="DX44" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY44" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ44" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="10">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" t="n" s="11">
         <v>39143.0</v>
@@ -17512,39 +18032,51 @@
         <v>45335.0</v>
       </c>
       <c r="DN45" t="n" s="11">
-        <v>45317.0</v>
+        <v>45316.0</v>
       </c>
       <c r="DO45" t="n" s="11">
         <v>45274.0</v>
       </c>
       <c r="DP45" t="n" s="11">
-        <v>44859.0</v>
+        <v>44858.0</v>
       </c>
       <c r="DQ45" t="n" s="11">
-        <v>44755.0</v>
+        <v>44746.0</v>
       </c>
       <c r="DR45" t="n" s="11">
-        <v>44704.0</v>
+        <v>44703.0</v>
       </c>
       <c r="DS45" t="n" s="11">
-        <v>44604.0</v>
+        <v>44624.0</v>
       </c>
       <c r="DT45" t="n" s="11">
-        <v>44889.0</v>
+        <v>44888.0</v>
       </c>
       <c r="DU45" t="n" s="11">
-        <v>45040.0</v>
+        <v>45024.0</v>
       </c>
       <c r="DV45" t="n" s="11">
-        <v>45143.0</v>
+        <v>45138.0</v>
+      </c>
+      <c r="DW45" t="n" s="11">
+        <v>45340.0</v>
+      </c>
+      <c r="DX45" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY45" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ45" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46" t="n" s="11">
         <v>51.7</v>
@@ -17727,10 +18259,10 @@
         <v>53.7</v>
       </c>
       <c r="BK46" t="n" s="11">
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="BL46" t="n" s="11">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="BM46" t="n" s="11">
         <v>53.8</v>
@@ -17760,7 +18292,7 @@
         <v>54.3</v>
       </c>
       <c r="BV46" t="n" s="11">
-        <v>54.5</v>
+        <v>54.4</v>
       </c>
       <c r="BW46" t="n" s="11">
         <v>54.6</v>
@@ -17787,7 +18319,7 @@
         <v>54.6</v>
       </c>
       <c r="CE46" t="n" s="11">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="CF46" t="n" s="11">
         <v>54.7</v>
@@ -17913,18 +18445,30 @@
         <v>55.7</v>
       </c>
       <c r="DU46" t="n" s="11">
-        <v>55.7</v>
+        <v>55.8</v>
       </c>
       <c r="DV46" t="n" s="11">
         <v>55.7</v>
+      </c>
+      <c r="DW46" t="n" s="11">
+        <v>55.9</v>
+      </c>
+      <c r="DX46" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY46" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ46" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C47" t="n" s="11">
         <v>5.0</v>
@@ -18107,13 +18651,13 @@
         <v>10.0</v>
       </c>
       <c r="BK47" t="n" s="11">
-        <v>9.7</v>
+        <v>9.8</v>
       </c>
       <c r="BL47" t="n" s="11">
         <v>9.5</v>
       </c>
       <c r="BM47" t="n" s="11">
-        <v>9.1</v>
+        <v>9.2</v>
       </c>
       <c r="BN47" t="n" s="11">
         <v>8.8</v>
@@ -18158,7 +18702,7 @@
         <v>6.8</v>
       </c>
       <c r="CB47" t="n" s="11">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="CC47" t="n" s="11">
         <v>6.3</v>
@@ -18293,51 +18837,63 @@
         <v>3.4</v>
       </c>
       <c r="DU47" t="n" s="11">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="DV47" t="n" s="11">
         <v>3.0</v>
+      </c>
+      <c r="DW47" t="n" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="DX47" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DY47" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="DZ47" t="s" s="11">
+        <v>44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="12">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="12">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="12">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="12">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="12">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="13">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:DV2"/>
-    <mergeCell ref="A3:DV3"/>
+    <mergeCell ref="A2:DZ2"/>
+    <mergeCell ref="A3:DZ3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F4"/>
@@ -18371,14 +18927,15 @@
     <mergeCell ref="DK4:DN4"/>
     <mergeCell ref="DO4:DR4"/>
     <mergeCell ref="DS4:DV4"/>
-    <mergeCell ref="A6:DV6"/>
-    <mergeCell ref="A20:DV20"/>
-    <mergeCell ref="A34:DV34"/>
-    <mergeCell ref="A1:DV1"/>
+    <mergeCell ref="DW4:DZ4"/>
+    <mergeCell ref="A6:DZ6"/>
+    <mergeCell ref="A20:DZ20"/>
+    <mergeCell ref="A34:DZ34"/>
+    <mergeCell ref="A1:DZ1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:14:39&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:51:29&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/National accounts - Population and employment quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/National accounts - Population and employment quarters.xlsx
@@ -216,7 +216,7 @@
     <t>Including family workers.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 08:51:22</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:06:48</t>
   </si>
 </sst>
 </file>
@@ -18935,7 +18935,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 08:51:29&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:06:55&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>